--- a/app/database/Parametros.xlsx
+++ b/app/database/Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GESGLOS_DF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2026\Gesglos\booking_scraper\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0495DA-168D-4A76-BD98-07F4E5B5FF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39684F42-15D1-4A64-AC05-679E74D060C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E98B23C-6360-4275-ADF1-08EC9DEFEBC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="11376" xr2:uid="{9E98B23C-6360-4275-ADF1-08EC9DEFEBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
   <si>
     <t>Hotel</t>
   </si>
@@ -69,100 +69,7 @@
     <t>EL PEÑOL, GUATAPÉ</t>
   </si>
   <si>
-    <t>Cerro Dorado</t>
-  </si>
-  <si>
-    <t>Finca Rancho de Luigi</t>
-  </si>
-  <si>
-    <t>Hotel Refugio Bike</t>
-  </si>
-  <si>
-    <t>Hotel Marqueta</t>
-  </si>
-  <si>
-    <t>Glamping Ciudad Perdida Falan</t>
-  </si>
-  <si>
-    <t>Hotel Boutique Posada Las Trampas</t>
-  </si>
-  <si>
-    <t>Cannua Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glamping con jacuzzi </t>
-  </si>
-  <si>
-    <t>Tau House</t>
-  </si>
-  <si>
-    <t>Bosko</t>
-  </si>
-  <si>
-    <t>The Boato Hotel</t>
-  </si>
-  <si>
-    <t>Luxé Cabañas</t>
-  </si>
-  <si>
-    <t>La Pausa Hotelbistro</t>
-  </si>
-  <si>
-    <t>Ibuku Hotel Guatapé - Chalets</t>
-  </si>
-  <si>
-    <t>Atma Eco Village</t>
-  </si>
-  <si>
-    <t>Levit Glamping - Hotel Guatapé Peñol</t>
-  </si>
-  <si>
-    <t>Glamping The Mountain</t>
-  </si>
-  <si>
-    <t>BubbleSky Glamping Guatapé</t>
-  </si>
-  <si>
-    <t>Bethel Lozana Guatape</t>
-  </si>
-  <si>
     <t>Arvum Hotel Boutique</t>
-  </si>
-  <si>
-    <t>Vivanti Resort</t>
-  </si>
-  <si>
-    <t>Hotel La Magdalena Adult Only</t>
-  </si>
-  <si>
-    <t>Hotel Mansión Guatapé</t>
-  </si>
-  <si>
-    <t>Ayenda Hotel Bambu Guatape</t>
-  </si>
-  <si>
-    <t>Hotel Casa Linda Guatape</t>
-  </si>
-  <si>
-    <t>Movich Hotel Las Lomas</t>
-  </si>
-  <si>
-    <t>MG Hotels &amp; Suites</t>
-  </si>
-  <si>
-    <t>La Casona de Sara</t>
-  </si>
-  <si>
-    <t>Waka Hotel Rural</t>
-  </si>
-  <si>
-    <t>Casa De Amigos Hotel Boutique</t>
-  </si>
-  <si>
-    <t>Eco-Glamping Shalom</t>
-  </si>
-  <si>
-    <t>Hotel Boutique San Rafael</t>
   </si>
   <si>
     <t>1714 Hotel Boutique Guatapé</t>
@@ -183,155 +90,25 @@
     <t>El peñol, Guatapé</t>
   </si>
   <si>
-    <t>San simon glamping, El peñol, Guatape</t>
-  </si>
-  <si>
     <t>Domus Glamping Guatapé</t>
-  </si>
-  <si>
-    <t>Brisas de Guatapé</t>
-  </si>
-  <si>
-    <t>Hotel Real Guatapé.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eden Hotel </t>
-  </si>
-  <si>
-    <t>Magic View El peñol, Guatapé</t>
-  </si>
-  <si>
-    <t>Glamping la Cepa GUATAPÉ</t>
-  </si>
-  <si>
-    <t>El Trebol</t>
   </si>
   <si>
     <t>Glamping con jacuzzi y cocina- El Peñol a 30 minutos de Guatapé</t>
   </si>
   <si>
-    <t>Jordan Hotel Boutique</t>
-  </si>
-  <si>
-    <t>Hotel Pietrasanta</t>
-  </si>
-  <si>
     <t>Hotel Omaga El peñol- Guatape</t>
-  </si>
-  <si>
-    <t>Hotel Stay Guatape a dos cuadras del parque</t>
   </si>
   <si>
     <t>Hotel Las Vegas</t>
   </si>
   <si>
-    <t>Hotel porto guatapé</t>
-  </si>
-  <si>
-    <t>Cabañas Navegar- El peñol, Guatape</t>
-  </si>
-  <si>
-    <t>Cabañas Refugio Himalaya</t>
-  </si>
-  <si>
-    <t>San Simon Glamping,El peñol,Guatape, Guatapé (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Cabañas Navegar- El peñol, Guatape, Guatapé (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Magic View - El peñol, Guatape, El Peñol (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Refugio del Lago, Guatapé (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Suite Gold Rocks Glamping, El Peñol (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Eco Lodge Glamping, Guatapé (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Glamping Montecarlo Domo Geodesico y Sauna Finlandés Guatapé, Guatapé (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Finca 3 - Dakeva, El Peñol (precios actualizados 2024) (booking.com)</t>
-  </si>
-  <si>
-    <t>Casa Encuentro by Haus</t>
-  </si>
-  <si>
-    <t>El espume de San Juan By JR</t>
-  </si>
-  <si>
-    <t>Finca las 3 marias</t>
-  </si>
-  <si>
-    <t>Finca Alejandria</t>
-  </si>
-  <si>
-    <t>Villa Aldebaran</t>
-  </si>
-  <si>
-    <t>Finca villa maru</t>
-  </si>
-  <si>
-    <t>Hermosa Casa de campo el peñol Gutape</t>
-  </si>
-  <si>
-    <t>Finca-Hotel Montecarlo
-Guatape by Hope</t>
-  </si>
-  <si>
-    <t>Finca villa sofia</t>
-  </si>
-  <si>
-    <t>Finca Maica</t>
-  </si>
-  <si>
     <t>Finca con jacuzzi a 15min de Guatape</t>
-  </si>
-  <si>
-    <t>EDYMA 
-Cabaña</t>
-  </si>
-  <si>
-    <t>Finca Carmela</t>
-  </si>
-  <si>
-    <t>Villa Lisboa</t>
-  </si>
-  <si>
-    <t>Cabaña 
-La Heliconia</t>
   </si>
   <si>
     <t>Finca Parcelación Alemania 1 El peñol, Guatapé</t>
   </si>
   <si>
-    <t>EDYMA 
-Cabaña con jacuzzi</t>
-  </si>
-  <si>
-    <t>Loge Cabaña peñol-Guatape</t>
-  </si>
-  <si>
     <t>Finca la Marina el peñol,Guatapé</t>
-  </si>
-  <si>
-    <t>Hotel Stay Guatape a dos cuadras del parque.</t>
-  </si>
-  <si>
-    <t>Cabañas Navegar- El peñol, guatape</t>
-  </si>
-  <si>
-    <t>EL PEÑOL</t>
-  </si>
-  <si>
-    <t>Santa Maria de las Aguas  peñol</t>
-  </si>
-  <si>
-    <t>Guatapé</t>
   </si>
   <si>
     <t xml:space="preserve">El peñol </t>
@@ -340,55 +117,10 @@
     <t>El peñol</t>
   </si>
   <si>
-    <t>Cabañas tipo glamping cerca al peñol LUUM</t>
-  </si>
-  <si>
-    <t>Finca 1- Dakeva</t>
-  </si>
-  <si>
-    <t>Cabaña el mirador azul</t>
-  </si>
-  <si>
-    <t>Espectacular Cabaña Loft en Guatape - Jacuzzi</t>
-  </si>
-  <si>
-    <t>Hotel Guatatur</t>
-  </si>
-  <si>
     <t>Se abre en una ventana nueva</t>
   </si>
   <si>
-    <t>Hotel spa bliss guatapé</t>
-  </si>
-  <si>
     <t>Hotel Portobelo Guatape</t>
-  </si>
-  <si>
-    <t>Hotel Brisas De Guatape</t>
-  </si>
-  <si>
-    <t>Bramasole Hotel Boutique - El Peñol</t>
-  </si>
-  <si>
-    <t>NOMADA HOTEL GUATAPE</t>
-  </si>
-  <si>
-    <t>La Madriguera</t>
-  </si>
-  <si>
-    <t>Hotel Las Guacamayas Guatapé</t>
-  </si>
-  <si>
-    <t>Rooca Guatape</t>
-  </si>
-  <si>
-    <t>Hotel Santorini</t>
-  </si>
-  <si>
-    <t>Guatape</t>
-  </si>
-  <si>
-    <t>Hotel y Termales Castillo Del Lago Guatape</t>
   </si>
   <si>
     <t>1811 Villas Guatapé</t>
@@ -400,40 +132,10 @@
     <t>Hotel Z3</t>
   </si>
   <si>
-    <t>Bayit Tov Circunvalar Hotel</t>
-  </si>
-  <si>
-    <t>Zi One Luxury Hotel</t>
-  </si>
-  <si>
-    <t>Hotel Go Pereira</t>
-  </si>
-  <si>
-    <t>Santorini Apartamentos Amoblados</t>
-  </si>
-  <si>
-    <t>El Gran Hotel de Pereira</t>
-  </si>
-  <si>
-    <t>GHL Hotel Abadia Plaza</t>
-  </si>
-  <si>
-    <t>Luxor Plaza H&amp;S</t>
-  </si>
-  <si>
     <t>Pereira</t>
   </si>
   <si>
     <t xml:space="preserve">Guatapé </t>
-  </si>
-  <si>
-    <t>Hotel Real Guatapé</t>
-  </si>
-  <si>
-    <t>Hotel Chromatic</t>
-  </si>
-  <si>
-    <t>Hotel Portal Guatapé</t>
   </si>
   <si>
     <t>Ocupadas</t>
@@ -454,82 +156,7 @@
     <t>La Herradura lodge</t>
   </si>
   <si>
-    <t>Hotel Rural SAN REMO</t>
-  </si>
-  <si>
-    <t>Termales Santa Rosa De Cabal</t>
-  </si>
-  <si>
-    <t>Hotel Bariloche</t>
-  </si>
-  <si>
-    <t>Hotel El Cortijo Santa Rosa De Cabal</t>
-  </si>
-  <si>
-    <t>Hotel hacienta santa clara</t>
-  </si>
-  <si>
-    <t>Hotel El Alba</t>
-  </si>
-  <si>
-    <t>Cali</t>
-  </si>
-  <si>
-    <t>Hotel Toscana Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel San Fernando Real </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torca Hotel </t>
-  </si>
-  <si>
-    <t>Hotel Blue 66</t>
-  </si>
-  <si>
-    <t>Hotel Park</t>
-  </si>
-  <si>
     <t>Hotel Campestre Alto lindo en Guatapé</t>
-  </si>
-  <si>
-    <t>GUATAPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casa Garcia Rent Home </t>
-  </si>
-  <si>
-    <t>Aptos vista al Embalse, frente al lago, Restaurantes, Bares</t>
-  </si>
-  <si>
-    <t>Roble Colonial - Apartamentos Deluxe en Guatapé</t>
-  </si>
-  <si>
-    <t>Apto cerca Malecón, Plaza Principal, Plazoleta Zocalos, a 8 min de la Piedra del Peñol, GRATIS PARQUEADERO!!!</t>
-  </si>
-  <si>
-    <t>Loma Rent Home Guatape</t>
-  </si>
-  <si>
-    <t>Aptos Plaza Principal, con y sin Vista al Embalse, frente Autobús, a 8 minutos de la Piedra del Peñol, TODO CERCA!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel portal del lago guatape </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake View Hostel </t>
-  </si>
-  <si>
-    <t>San Roque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Nuss </t>
-  </si>
-  <si>
-    <t>Glamping Paraiso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel colonial San Roque </t>
   </si>
 </sst>
 </file>
@@ -753,7 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -790,8 +417,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -805,20 +430,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -844,7 +465,7 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -858,6 +479,56 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -954,56 +625,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1034,18 +655,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BE63BE7-3823-4732-A186-4FE3C032EC28}" name="Competencia" displayName="Competencia" ref="A1:D149" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BE63BE7-3823-4732-A186-4FE3C032EC28}" name="Competencia" displayName="Competencia" ref="A1:D149" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:D149" xr:uid="{9BE63BE7-3823-4732-A186-4FE3C032EC28}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
     <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7901FE8-C6FF-4F44-9910-F8BC86D9C51A}" name="Hotel" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8874C2CB-3857-44FC-8DE5-C97BCE355615}" name="Competidor" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D303086F-32DF-4214-9F0B-3463D4C96421}" name="Ciudad" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{A7901FE8-C6FF-4F44-9910-F8BC86D9C51A}" name="Hotel" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8874C2CB-3857-44FC-8DE5-C97BCE355615}" name="Competidor" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D303086F-32DF-4214-9F0B-3463D4C96421}" name="Ciudad" dataDxfId="10">
       <calculatedColumnFormula>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D4EE1D45-076C-4CB6-B079-4690DC785BDB}" name="Buscar" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{D4EE1D45-076C-4CB6-B079-4690DC785BDB}" name="Buscar" dataDxfId="9">
       <calculatedColumnFormula>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1065,12 +686,12 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2AF60C71-8D56-468C-9CC4-BD15BC00353F}" name="Ciudad"/>
     <tableColumn id="2" xr3:uid="{6005CAC3-37B2-4074-937E-9F99354D2696}" name="Hotel"/>
-    <tableColumn id="3" xr3:uid="{22288B2C-2FDC-4E1A-9623-EA59B494D5B4}" name="Habitaciones" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8FCC5376-2E93-498D-B720-45DF9B9D00EF}" name="Ocupadas" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{22288B2C-2FDC-4E1A-9623-EA59B494D5B4}" name="Habitaciones" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8FCC5376-2E93-498D-B720-45DF9B9D00EF}" name="Ocupadas" dataDxfId="7">
       <calculatedColumnFormula>+RANDBETWEEN(1,33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{537BF327-E4D0-473F-96C5-297CE6D34C0B}" name="Tarifa" dataDxfId="1" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{4C30928C-FA34-4CC5-9A2D-AF0F44D23A49}" name="Total_Ingresos" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{537BF327-E4D0-473F-96C5-297CE6D34C0B}" name="Tarifa" dataDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{4C30928C-FA34-4CC5-9A2D-AF0F44D23A49}" name="Total_Ingresos" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>+Cliente2[[#This Row],[Ocupadas]]*Cliente2[[#This Row],[Tarifa]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{F81BF632-8D09-44D7-BB79-BBC28AE5F3F0}" name="Registro"/>
@@ -1080,9 +701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1120,7 +741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1226,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1368,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1376,11 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490BB3E7-AA76-410D-8D51-AC55157784CD}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,16 +1024,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1420,191 +1041,20 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
+      <c r="B11" s="22"/>
+    </row>
+    <row r="21" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.booking.com/hotel/co/omaga.es.html?label=metagha-link-LUCO-hotel-6316547_dev-desktop_los-1_bw-9_dow-Thursday_defdate-0_room-0_gstadt-2_rateid-public_aud-0_gacid-21415124842_mcid-10_ppa-0_clrid-0_ad-1_gstkid-0_checkin-20241128_ppt-Co_lp-2170_r-4994707831949072125&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;utm_source=metagha&amp;utm_medium=localuniversal&amp;utm_term=hotel-6316547&amp;utm_content=dev-desktop_los-1_bw-9_dow-Thursday_defdate-0_room-0_gstadt-2_rateid-public_aud-0_gacid-21415124842_mcid-10_ppa-0_clrid-0_ad-1_gstkid-0_checkin-20241128_ppt-Co&amp;utm_campaign=CO&amp;gclid=Cj0KCQiAi_G5BhDXARIsAN5SX7o45HMfbv9Du7i_-j1GdzKiVOFGIyr1YKksvuiXYTylNBYLKm0yOdcaAtpSEALw_wcB&amp;aid=356938&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e982a5d7809901c1&amp;srepoch=1732059371&amp;all_sr_blocks=631654701_403431312_2_2_0_703336&amp;highlighted_blocks=631654701_403431312_2_2_0_703336&amp;matching_block_id=631654701_403431312_2_2_0_703336&amp;sr_pri_blocks=631654701_403431312_2_2_0_703336_13440000&amp;from=searchresults" xr:uid="{8553A015-1976-4424-9A73-65C970BA370F}"/>
-    <hyperlink ref="B10" r:id="rId2" display="https://www.booking.com/hotel/co/stay.es.html?label=gog235jc-1DCAsoMkIEc3RheUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgCoML0uQbAAgHSAiQxZTM1MDgxZS1lODRhLTQyMWYtODgxYy1lNzI3YTIxMzkyYjXYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-21&amp;checkout=2024-11-22&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=127ea610a0e30240&amp;srepoch=1732059482&amp;all_sr_blocks=1112627201_394827974_1_0_0&amp;highlighted_blocks=1112627201_394827974_1_0_0&amp;matching_block_id=1112627201_394827974_1_0_0&amp;sr_pri_blocks=1112627201_394827974_1_0_0__11760000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{EF62246C-8112-45F0-98DF-E7C3F1D66E37}"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://www.booking.com/hotel/co/glmping-5-elementos-el-penol-a-30-minutos-de-guatape.es.html?label=gog235jc-1DCAsoMkI0Z2xtcGluZy01LWVsZW1lbnRvcy1lbC1wZW5vbC1hLTMwLW1pbnV0b3MtZGUtZ3VhdGFwZUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgCytH0uQbAAgHSAiQ1ZDRmYjA0Yi1kYjM4LTQ5YzctODI5ZC0yYTJlNzA0MDViNDDYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-21&amp;checkout=2024-11-22&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=52520125a579028e&amp;srepoch=1732061433&amp;all_sr_blocks=1261771001_401045264_2_1_0_637070&amp;highlighted_blocks=1261771001_401045264_2_1_0_637070&amp;matching_block_id=1261771001_401045264_2_1_0_637070&amp;sr_pri_blocks=1261771001_401045264_2_1_0_637070_30800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{008A1ECE-1E3F-437F-BF38-9931C8950A95}"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://www.booking.com/hotel/co/finca-con-jacuzzi-a-15min-de-guatape.es.html?label=gog235jc-1BCAsoMkIkZmluY2EtY29uLWphY3V6emktYS0xNW1pbi1kZS1ndWF0YXBlSFJYA2gyiAEBmAEKuAEYyAEM2AEB6AEBiAIBqAIEuAK80vS5BsACAdICJDRhZmQ0YTAxLWM0ZTgtNGNhZC04OGU1LTMzNDllMWZkN2U1M9gCBeACAQ&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-21&amp;checkout=2024-11-22&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=1&amp;req_children=1&amp;age=0&amp;req_age=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=9fc2015f23080068&amp;srepoch=1732061550&amp;all_sr_blocks=1277805301_400689207_10_0_0&amp;highlighted_blocks=1277805301_400689207_10_0_0&amp;matching_block_id=1277805301_400689207_10_0_0&amp;sr_pri_blocks=1277805301_400689207_10_0_0__80000000&amp;from=searchresults" xr:uid="{D40C8F3C-FDB3-4E3D-979E-81AE887F7B6D}"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://www.booking.com/hotel/co/finca-parcelacion-alemania-1.es.html?label=gog235jc-1BCAsoMkIcZmluY2EtcGFyY2VsYWNpb24tYWxlbWFuaWEtMUgEWANoMogBAZgBCrgBGMgBDNgBAegBAYgCAagCBLgCsNP0uQbAAgHSAiRmYzZlZGIyYS03MTgyLTQ5OGMtYmE5MC00YzE3ODAyNGEwNGLYAgXgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-21&amp;checkout=2024-11-22&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=1&amp;req_children=1&amp;age=0&amp;req_age=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=c826019951a600bc&amp;srepoch=1732061666&amp;all_sr_blocks=1293010901_402244377_4_0_0&amp;highlighted_blocks=1293010901_402244377_4_0_0&amp;matching_block_id=1293010901_402244377_4_0_0&amp;sr_pri_blocks=1293010901_402244377_4_0_0__40000000&amp;from=searchresults" xr:uid="{D2BE310B-F1E1-4257-9E06-1829D602557E}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://www.booking.com/hotel/co/cabanas-navegar.es-mx.html?label=Spanish_Colombia_ES_CO_20153959105-JvWA_BiunE_YalmU9PDZ_QS640874832178%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atidsa-162435870265%3Alp20198%3Ali%3Adec%3Adm%3Aag20153959105%3Acmp313803625&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-16&amp;checkout=2025-01-17&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=1&amp;req_children=1&amp;age=1&amp;req_age=1&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=93d05827e77d073c&amp;srepoch=1734611241&amp;all_sr_blocks=953678210_384057531_5_0_0&amp;highlighted_blocks=953678210_384057531_5_0_0&amp;matching_block_id=953678210_384057531_5_0_0&amp;sr_pri_blocks=953678210_384057531_5_0_0__31900000&amp;from=searchresults" xr:uid="{F13BFE1A-0181-49EB-93A4-51A68B01EEAB}"/>
-    <hyperlink ref="B19" r:id="rId7" display="https://www.booking.com/hotel/co/portobelo-guatape.es.html?label=English_Colombia_EN_CO_29562107545-_WDZKP6aira3zHoJLRwvgQS217246346796%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi55625023303%3Atidsa-323233910078%3Alp20198%3Ali%3Adec%3Adm&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=distance_from_search&amp;srpvid=229b6189d75b001e&amp;srepoch=1739800347&amp;from=searchresults" xr:uid="{B16B5558-CD75-4578-8BBA-8FF96BB4DB00}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1613,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB63C-18F2-44BE-92D8-19338A9887F9}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1642,13 +1092,13 @@
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D2" t="str">
         <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
@@ -1656,2337 +1106,470 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Eden Hotel , El peñol</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D4" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel La Magdalena Adult Only, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D5" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Mansión Guatapé, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Santa Maria de las Aguas  peñol, El peñol</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D7" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Tau House, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Vivanti Resort, GUATAPÉ</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D9" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Atma Eco Village, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D10" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Bethel Lozana Guatape, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Bosko, GUATAPÉ</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D12" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>BubbleSky Glamping Guatapé, EL PEÑOL, GUATAPÉ</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="F59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D13" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping The Mountain, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D14" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Ibuku Hotel Guatapé - Chalets, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D15" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>La Pausa Hotelbistro, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D16" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Levit Glamping - Hotel Guatapé Peñol, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D17" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Luxé Cabañas, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D18" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Tau House, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>The Boato Hotel, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D20" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>El Trebol, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping la Cepa GUATAPÉ, El peñol</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D22" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Pietrasanta, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D23" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Jordan Hotel Boutique, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D24" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Levit Glamping - Hotel Guatapé Peñol, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Magic View El peñol, Guatapé, El peñol</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D26" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>San simon glamping, El peñol, Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D27" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>The Boato Hotel, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D28" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Casa De Amigos Hotel Boutique, Mariquita</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cerro Dorado, Mariquita</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D30" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Eco-Glamping Shalom, Mariquita</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D31" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca Rancho de Luigi, Mariquita</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D32" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping Ciudad Perdida Falan, Mariquita</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D33" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Boutique Posada Las Trampas, Mariquita</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D34" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Boutique San Rafael, Mariquita</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D35" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Marqueta, Mariquita</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D36" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Refugio Bike, Mariquita</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D37" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>La Casona de Sara, Mariquita</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Mariquita</v>
-      </c>
-      <c r="D38" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Waka Hotel Rural, Mariquita</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D39" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Ayenda Hotel Bambu Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D40" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>La Madriguera, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D41" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Brisas de Guatapé, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D42" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping con jacuzzi , GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D43" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Casa Linda Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D44" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Stay Guatape a dos cuadras del parque., GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D45" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Real Guatapé., GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>MARINILLA, ANTIOQUIA</v>
-      </c>
-      <c r="D46" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>MG Hotels &amp; Suites, MARINILLA, ANTIOQUIA</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>MARINILLA, ANTIOQUIA</v>
-      </c>
-      <c r="D47" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabañas tipo glamping cerca al peñol LUUM, MARINILLA, ANTIOQUIA</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>MARINILLA, ANTIOQUIA</v>
-      </c>
-      <c r="D48" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Movich Hotel Las Lomas, MARINILLA, ANTIOQUIA</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>MARINILLA, ANTIOQUIA</v>
-      </c>
-      <c r="D49" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cannua Lodge, MARINILLA, ANTIOQUIA</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Magic View El peñol, Guatapé, El peñol</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>San simon glamping, El peñol, Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="e">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping con jacuzzi y cocina- El Peñol a 30 minutos de Guatapé, EL PEÑOL</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabañas Refugio Himalaya, Guatapé</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" t="e">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" t="e">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Stay Guatape a dos cuadras del parque, Guatapé</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Bramasole Hotel Boutique - El Peñol, El peñol </v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Las Vegas, Guatapé</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>NOMADA HOTEL GUATAPE, Guatapé</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel porto guatapé, Guatapé</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Magic View El peñol, Guatapé, El peñol</v>
-      </c>
+    </row>
+    <row r="60" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B61" s="8"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Marina Navegar- El peñol, Guatape, Guatapé</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D63" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping The Mountain, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping con jacuzzi y cocina- El Peñol a 30 minutos de Guatapé, Guatapé</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabañas Refugio Himalaya, Guatapé</v>
-      </c>
+    <row r="62" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D66" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>BubbleSky Glamping Guatapé, EL PEÑOL, GUATAPÉ</v>
-      </c>
+    <row r="66" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D67" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Ayenda Hotel Bambu Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D68" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Las Guacamayas Guatapé, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D69" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel spa bliss guatapé, GUATAPÉ</v>
-      </c>
+    <row r="67" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D70" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Brisas De Guatape, GUATAPÉ</v>
-      </c>
+    <row r="70" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D71" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Portobelo Guatape, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D72" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Las Vegas, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D73" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Guatatur, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPÉ</v>
-      </c>
-      <c r="D74" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Real Guatapé., GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>San Simon Glamping,El peñol,Guatape, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabañas Navegar- El peñol, Guatape, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Magic View - El peñol, Guatape, El Peñol (precios actualizados 2024) (booking.com), El peñol</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Refugio del Lago, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>EDYMA 
-Cabaña, Guatapé</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Suite Gold Rocks Glamping, El Peñol (precios actualizados 2024) (booking.com), El peñol</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Eco Lodge Glamping, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping Montecarlo Domo Geodesico y Sauna Finlandés Guatapé, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca 3 - Dakeva, El Peñol (precios actualizados 2024) (booking.com), El peñol</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Casa Encuentro by Haus, El peñol</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL, GUATAPÉ</v>
-      </c>
-      <c r="D85" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>El espume de San Juan By JR, EL PEÑOL, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Finca las 3 marias, El peñol </v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca Alejandria, El peñol</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Villa Aldebaran, El peñol</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca villa maru, El peñol</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hermosa Casa de campo el peñol Gutape, Guatapé</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca-Hotel Montecarlo
-Guatape by Hope, Guatapé</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca villa sofia, El peñol</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca Maica, Guatapé</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabaña el mirador azul, Guatapé</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Villa Aldebaran, El peñol</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>EDYMA 
-Cabaña, Guatapé</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca 1- Dakeva, Guatapé</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca Carmela, El peñol</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Villa Lisboa, El peñol</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Cabaña 
-La Heliconia, El peñol</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Espectacular Cabaña Loft en Guatape - Jacuzzi, El peñol</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Villa Aldebaran, El peñol</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca 1- Dakeva, Guatapé</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>EDYMA 
-Cabaña con jacuzzi, Guatapé</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>90</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Finca Carmela, El peñol</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Loge Cabaña peñol-Guatape, El peñol</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Vivanti Resort, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>1714 Hotel Boutique Guatapé, Guatapé</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>EL PEÑOL</v>
-      </c>
-      <c r="D109" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel La Magdalena Adult Only, EL PEÑOL</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Rooca Guatape, Guatape</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Santorini, Guatapé</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Mansión Guatapé, Guatape</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Marina Navegar- El peñol, Guatape, Guatapé</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Jordan Hotel Boutique, GUATAPÉ</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>San Simon Glamping,El peñol,Guatape, Guatapé (precios actualizados 2024) (booking.com), Guatapé</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Magic View El peñol, Guatapé, El peñol</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>The Boato Hotel, El peñol</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D118" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Bayit Tov Circunvalar Hotel, Pereira</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D119" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Zi One Luxury Hotel, Pereira</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D120" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Go Pereira, Pereira</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>117</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D121" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Santorini Apartamentos Amoblados, Pereira</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D122" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>El Gran Hotel de Pereira, Pereira</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D123" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>GHL Hotel Abadia Plaza, Pereira</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Pereira</v>
-      </c>
-      <c r="D124" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Luxor Plaza H&amp;S, Pereira</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>105</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v xml:space="preserve">Guatapé </v>
-      </c>
-      <c r="D125" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Hotel Guatatur, Guatapé </v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>105</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v xml:space="preserve">Guatapé </v>
-      </c>
-      <c r="D126" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Hotel Real Guatapé, Guatapé </v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>105</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v xml:space="preserve">Guatapé </v>
-      </c>
-      <c r="D127" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Hotel Chromatic, Guatapé </v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>105</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v xml:space="preserve">Guatapé </v>
-      </c>
-      <c r="D128" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Hotel Portal Guatapé, Guatapé </v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v xml:space="preserve">Guatapé </v>
-      </c>
-      <c r="D129" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v xml:space="preserve">Hotel Las Vegas, Guatapé </v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C130" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Santa rosa de cabal</v>
-      </c>
-      <c r="D130" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Rural SAN REMO, Santa rosa de cabal</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>135</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Santa rosa de cabal</v>
-      </c>
-      <c r="D131" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Termales Santa Rosa De Cabal, Santa rosa de cabal</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Santa rosa de cabal</v>
-      </c>
-      <c r="D132" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Bariloche, Santa rosa de cabal</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Santa rosa de cabal</v>
-      </c>
-      <c r="D133" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel El Cortijo Santa Rosa De Cabal, Santa rosa de cabal</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Santa rosa de cabal</v>
-      </c>
-      <c r="D134" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel hacienta santa clara, Santa rosa de cabal</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Cali</v>
-      </c>
-      <c r="D135" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Toscana Plaza, Cali</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Cali</v>
-      </c>
-      <c r="D136" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel San Fernando Real , Cali</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Cali</v>
-      </c>
-      <c r="D137" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Torca Hotel , Cali</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Cali</v>
-      </c>
-      <c r="D138" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Blue 66, Cali</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>Cali</v>
-      </c>
-      <c r="D139" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Park, Cali</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C140" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D140" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel portal del lago guatape , GUATAPE</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D141" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Lake View Hostel , GUATAPE</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C142" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D142" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Aptos vista al Embalse, frente al lago, Restaurantes, Bares, GUATAPE</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D143" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Roble Colonial - Apartamentos Deluxe en Guatapé, GUATAPE</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D144" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Apto cerca Malecón, Plaza Principal, Plazoleta Zocalos, a 8 min de la Piedra del Peñol, GRATIS PARQUEADERO!!!, GUATAPE</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C145" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D145" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Loma Rent Home Guatape, GUATAPE</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C146" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D146" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Aptos Plaza Principal, con y sin Vista al Embalse, frente Autobús, a 8 minutos de la Piedra del Peñol, TODO CERCA!!!, GUATAPE</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C147" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>GUATAPE</v>
-      </c>
-      <c r="D147" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel Portobelo Guatape, GUATAPE</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B148" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C148" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>San Roque</v>
-      </c>
-      <c r="D148" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Glamping Paraiso, San Roque</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C149" s="18" t="str">
-        <f>+INDEX(Cliente[Ciudad],MATCH(Competencia[[#This Row],[Hotel]],Cliente[Hotel],0),1)</f>
-        <v>San Roque</v>
-      </c>
-      <c r="D149" s="19" t="str">
-        <f>+Competencia[[#This Row],[Competidor]]&amp;", "&amp;Competencia[[#This Row],[Ciudad]]</f>
-        <v>Hotel colonial San Roque , San Roque</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B127" s="13"/>
+    </row>
+    <row r="128" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B130" s="18"/>
+    </row>
+    <row r="131" spans="2:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B132" s="18"/>
+    </row>
+    <row r="133" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B133" s="21"/>
+    </row>
+    <row r="134" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B134" s="19"/>
+    </row>
+    <row r="135" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B135" s="19"/>
+    </row>
+    <row r="140" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B142" s="6"/>
+    </row>
+    <row r="143" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B148" s="41"/>
+    </row>
+    <row r="149" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B149" s="42"/>
+    </row>
+    <row r="150" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B151" s="20"/>
-    </row>
-    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B152" s="21"/>
+    <row r="151" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B151" s="18"/>
+    </row>
+    <row r="152" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B152" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136:B145">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146 B67 B1:B39 B61 B63:B64 B73:B74 B69 B112 B41:B53 B117 B153:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B145">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A62:B62 B56 A2:A61 A63:A149" xr:uid="{11E980CC-9E44-40A6-A003-29402607D18D}">
@@ -3994,85 +1577,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" location="no_availability_msg" display="https://www.booking.com/hotel/co/the-boato-el-penol1.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=6718999&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=d59694989193006b&amp;srepoch=1731100085&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{F3080E24-F808-4D7E-AE57-0DB675F56AFC}"/>
-    <hyperlink ref="B17" r:id="rId2" display="https://www.booking.com/hotel/co/luxe-by-the-charlee.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=3306648&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=577c94a5323a0404&amp;srepoch=1731100111&amp;all_sr_blocks=330664806_115546006_2_1_0&amp;highlighted_blocks=330664806_115546006_2_1_0&amp;matching_block_id=330664806_115546006_2_1_0&amp;sr_pri_blocks=330664806_115546006_2_1_0__329947200&amp;from=searchresults" xr:uid="{DC4B228A-DCEF-4627-9563-0911ADBD8ACB}"/>
-    <hyperlink ref="B18" r:id="rId3" display="https://www.booking.com/hotel/co/tau-house.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=8258154&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=b32a94b138660740&amp;srepoch=1731100143&amp;all_sr_blocks=825815404_347032334_2_1_0&amp;highlighted_blocks=825815404_347032334_2_1_0&amp;matching_block_id=825815404_347032334_2_1_0&amp;sr_pri_blocks=825815404_347032334_2_1_0__625117500&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{BDFADE17-ACFC-49FB-9CDC-9ADF7766E14B}"/>
-    <hyperlink ref="B15" r:id="rId4" display="https://www.booking.com/hotel/co/la-pausa-hotelbistro.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=9224515&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=93d094c5851502f1&amp;srepoch=1731100176&amp;all_sr_blocks=922451501_403210579_2_41_0&amp;highlighted_blocks=922451501_403210579_2_41_0&amp;matching_block_id=922451501_403210579_2_41_0&amp;sr_pri_blocks=922451501_403210579_2_41_0__436995000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{EA3F8028-0B05-491B-A628-1230B4C08906}"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://www.booking.com/hotel/co/ibuku-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=8666201&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=725b94cfc2a101e9&amp;srepoch=1731100194&amp;all_sr_blocks=866620108_388715139_3_41_0&amp;highlighted_blocks=866620108_388715139_3_41_0&amp;matching_block_id=866620108_388715139_3_41_0&amp;sr_pri_blocks=866620108_388715139_3_41_0__353971053&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{E0DAD246-32D2-4FD9-9DFC-B6EAA846FFCE}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.booking.com/hotel/co/atma-eco-village.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=6461982&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e03394ed3cee05a6&amp;srepoch=1731100256&amp;all_sr_blocks=646198208_265527266_2_1_0&amp;highlighted_blocks=646198208_265527266_2_1_0&amp;matching_block_id=646198208_265527266_2_1_0&amp;sr_pri_blocks=646198208_265527266_2_1_0__423007200&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{8F7D60D0-C629-4015-BA64-9A7EFDE70494}"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://www.booking.com/hotel/co/bosko-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=3879424&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=661c94dde56f0077&amp;srepoch=1731100222&amp;all_sr_blocks=387942403_391842383_0_1_0_389191&amp;highlighted_blocks=387942403_391842383_0_1_0_389191&amp;matching_block_id=387942403_391842383_0_1_0_389191&amp;sr_pri_blocks=387942403_391842383_0_1_0_389191_708750000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{91B12B08-50F5-428E-9318-60DE947A580C}"/>
-    <hyperlink ref="B16" r:id="rId8" location="no_availability_msg" display="https://www.booking.com/hotel/co/levit-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=3167955&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=525294f44ce60f4a&amp;srepoch=1731100269&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{02975DB4-69B3-402F-B5B1-5FEE7CA5F957}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://www.booking.com/hotel/co/glamping-the-mountain.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8570511&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=bd40951557cc0237&amp;srepoch=1731100334&amp;all_sr_blocks=857051102_373211362_0_1_0&amp;highlighted_blocks=857051102_373211362_0_1_0&amp;matching_block_id=857051102_373211362_0_1_0&amp;sr_pri_blocks=857051102_373211362_0_1_0__388800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{4334FD58-2B38-463B-A1F7-F943EF631F00}"/>
-    <hyperlink ref="B12" r:id="rId10" location="no_availability_msg" display="https://www.booking.com/hotel/co/bubblesky-glamping-guatape-guatape1.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=53ad9524e2f200ec&amp;srepoch=1731100365&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{E827A1FD-F01F-4A75-AF55-B958A8B7F726}"/>
-    <hyperlink ref="B10" r:id="rId11" location="no_availability_msg" display="https://www.booking.com/hotel/co/bethel-lozana-guatape.es.html?label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQH4AQOIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIG4AIB&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=9219716&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=4817953215180229&amp;srepoch=1731100393&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{221D2593-BA81-43BF-96D6-5A000562C72B}"/>
-    <hyperlink ref="B2" r:id="rId12" display="https://www.booking.com/hotel/co/arvum-boutique.es.html?label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQH4AQOIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIG4AIB&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=9108472&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=c9c2957d3a9f0ab7&amp;srepoch=1731100543&amp;all_sr_blocks=910847208_403437473_2_1_0&amp;highlighted_blocks=910847208_403437473_2_1_0&amp;matching_block_id=910847208_403437473_2_1_0&amp;sr_pri_blocks=910847208_403437473_2_1_0__363951706&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{84F74EAF-9377-47F2-8224-9350FD9A8512}"/>
-    <hyperlink ref="B8" r:id="rId13" display="https://www.booking.com/hotel/co/vivanti-resort.es.html?label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQH4AQOIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIG4AIB&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=distance_from_search&amp;srpvid=ce39959ae6b00596&amp;srepoch=1731100601&amp;all_sr_blocks=1117293807_401806153_2_1_0_372951&amp;highlighted_blocks=1117293807_401806153_2_1_0_372951&amp;matching_block_id=1117293807_401806153_2_1_0_372951&amp;sr_pri_blocks=1117293807_401806153_2_1_0_372951_434816000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{6D8D4453-CA75-4AEA-957F-14075F3067D7}"/>
-    <hyperlink ref="B7" r:id="rId14" display="https://www.booking.com/hotel/co/tau-house.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=8258154&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=b32a94b138660740&amp;srepoch=1731100143&amp;all_sr_blocks=825815404_347032334_2_1_0&amp;highlighted_blocks=825815404_347032334_2_1_0&amp;matching_block_id=825815404_347032334_2_1_0&amp;sr_pri_blocks=825815404_347032334_2_1_0__625117500&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{959637F0-A910-44EB-9D04-8860335C71B8}"/>
-    <hyperlink ref="B4" r:id="rId15" display="https://www.booking.com/hotel/co/la-magdalena-santuario.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=2278508&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=168b95b4972802fd&amp;srepoch=1731100653&amp;all_sr_blocks=227850807_335665585_2_1_0&amp;highlighted_blocks=227850807_335665585_2_1_0&amp;matching_block_id=227850807_335665585_2_1_0&amp;sr_pri_blocks=227850807_335665585_2_1_0__432900000&amp;from=searchresults" xr:uid="{FC6D967E-67EC-4CC6-8A0B-C8B9489E237A}"/>
-    <hyperlink ref="B5" r:id="rId16" display="https://www.booking.com/hotel/co/mansion-de-oriente.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=2291786&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e98295bc625605a6&amp;srepoch=1731100669&amp;all_sr_blocks=229178609_211969538_2_41_0&amp;highlighted_blocks=229178609_211969538_2_41_0&amp;matching_block_id=229178609_211969538_2_41_0&amp;sr_pri_blocks=229178609_211969538_2_41_0__244800000&amp;from=searchresults" xr:uid="{7665CEC3-345A-4F9E-9335-956109DEFF91}"/>
-    <hyperlink ref="B39" r:id="rId17" display="https://www.booking.com/hotel/co/bambu-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8871595&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f3a395e09eb1055d&amp;srepoch=1731100740&amp;all_sr_blocks=887159510_377697257_2_2_0&amp;highlighted_blocks=887159510_377697257_2_2_0&amp;matching_block_id=887159510_377697257_2_2_0&amp;sr_pri_blocks=887159510_377697257_2_2_0__80514720&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{0B836227-06D8-4CCD-B6B0-8B6DEE631C95}"/>
-    <hyperlink ref="B43" r:id="rId18" display="https://www.booking.com/hotel/co/y-restaurante-casa-linda.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=10640660&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f46095f141f803af&amp;srepoch=1731100776&amp;all_sr_blocks=1064066010_395588304_2_41_0_492398&amp;highlighted_blocks=1064066010_395588304_2_41_0_492398&amp;matching_block_id=1064066010_395588304_2_41_0_492398&amp;sr_pri_blocks=1064066010_395588304_2_41_0_492398_111755530&amp;from=searchresults" xr:uid="{0AE00764-37BB-4586-9C84-C1E0E91DBBD0}"/>
-    <hyperlink ref="B48" r:id="rId19" location="no_availability_msg" display="https://www.booking.com/hotel/co/las-lomas.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=312034&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=14f8960a8e2d08cd&amp;srepoch=1731100824&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{C824FF76-2EA1-4E47-8E8A-D9579F834D87}"/>
-    <hyperlink ref="B37" r:id="rId20" display="https://www.booking.com/hotel/co/la-casona-de-sara.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=7104759&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=b4b9964e8f5103ae&amp;srepoch=1731100960&amp;all_sr_blocks=710475904_392513211_0_1_0&amp;highlighted_blocks=710475904_392513211_0_1_0&amp;matching_block_id=710475904_392513211_0_1_0&amp;sr_pri_blocks=710475904_392513211_0_1_0__200000000&amp;from=searchresults" xr:uid="{48698528-D848-4DE3-8533-3F43D7B605E7}"/>
-    <hyperlink ref="B38" r:id="rId21" display="https://www.booking.com/hotel/co/hacienda-el-placer.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=1072730&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=2769965741f0039b&amp;srepoch=1731100978&amp;all_sr_blocks=107273020_348106236_0_1_0&amp;highlighted_blocks=107273020_348106236_0_1_0&amp;matching_block_id=107273020_348106236_0_1_0&amp;sr_pri_blocks=107273020_348106236_0_1_0__290160000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{A328D514-95AD-4B2A-9E27-6AA03531A08D}"/>
-    <hyperlink ref="B28" r:id="rId22" display="https://www.booking.com/hotel/co/casa-de-amigos-boutique.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8373784&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=168b965db526019b&amp;srepoch=1731100994&amp;all_sr_blocks=837378402_401335015_0_1_0&amp;highlighted_blocks=837378402_401335015_0_1_0&amp;matching_block_id=837378402_401335015_0_1_0&amp;sr_pri_blocks=837378402_401335015_0_1_0__390700800&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{A9681151-B3DE-48E2-9364-E2A302D7A49E}"/>
-    <hyperlink ref="B33" r:id="rId23" location="no_availability_msg" display="https://www.booking.com/hotel/co/posada-las-trampas.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=401355&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e19c96664bd200d7&amp;srepoch=1731101008&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{BC950999-76BE-4C0E-98E2-40372DE4ED0C}"/>
-    <hyperlink ref="B36" r:id="rId24" display="https://www.booking.com/hotel/co/refugio-jg-mariquita.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=2110708&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f460969d6d6f0299&amp;srepoch=1731101118&amp;all_sr_blocks=211070801_357838345_0_9_0&amp;highlighted_blocks=211070801_357838345_0_9_0&amp;matching_block_id=211070801_357838345_0_9_0&amp;sr_pri_blocks=211070801_357838345_0_9_0__176000000&amp;from=searchresults" xr:uid="{35B1052C-BD90-4F36-9932-FB44002C46E5}"/>
-    <hyperlink ref="B30" r:id="rId25" display="https://www.booking.com/hotel/co/eco-glamping-shalom-mariquita.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=7185859&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=525296b97cdf009a&amp;srepoch=1731101175&amp;all_sr_blocks=718585904_355958777_2_41_0&amp;highlighted_blocks=718585904_355958777_2_41_0&amp;matching_block_id=718585904_355958777_2_41_0&amp;sr_pri_blocks=718585904_355958777_2_41_0__446400000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{C57EF28F-662F-46D3-ADCC-9A8E0E202CEC}"/>
-    <hyperlink ref="B34" r:id="rId26" display="https://www.booking.com/hotel/co/boutique-san-rafael-mariquita.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=6851639&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=ca8496c37e59026f&amp;srepoch=1731101195&amp;all_sr_blocks=685163901_298887798_2_1_0&amp;highlighted_blocks=685163901_298887798_2_1_0&amp;matching_block_id=685163901_298887798_2_1_0&amp;sr_pri_blocks=685163901_298887798_2_1_0__244800000&amp;from=searchresults" xr:uid="{6C15F858-496C-4CA7-9C2A-10BB81E7DC99}"/>
-    <hyperlink ref="B24" r:id="rId27" location="no_availability_msg" display="https://www.booking.com/hotel/co/levit-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=3167955&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=525294f44ce60f4a&amp;srepoch=1731100269&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{49640792-BA4C-461E-A592-EEC2B3957811}"/>
-    <hyperlink ref="B20" r:id="rId28" display="https://www.booking.com/hotel/co/bubblesky-glamping-guatape-guatape1.es.html?label=guatape-KQW9h8XFbgTYRBxOuACAeAS501945784499%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-467544111764%3Alp20198%3Ali%3Adec%3Adm&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=1827201&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-14&amp;checkout=2024-11-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=190c5d9cdf0a0447&amp;srepoch=1731590396&amp;all_sr_blocks=776657102_384931960_2_41_0&amp;highlighted_blocks=776657102_384931960_2_41_0&amp;matching_block_id=776657102_384931960_2_41_0&amp;sr_pri_blocks=776657102_384931960_2_41_0__44597560&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{F936E4B5-C36A-4C27-A9C6-EDD5FCDCA11C}"/>
-    <hyperlink ref="B23" r:id="rId29" display="https://www.booking.com/hotel/co/jordan-boutique.es.html?label=New_English_EN_CO_26767227745-8Pi8nSYrBsC68_fucp60dwS634117823889%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atidsa-162435870265%3Alp20198%3Ali%3Adec%3Adm%3Aag26767227745%3Acmp394643665&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;gclid=CjwKCAiA3Na5BhAZEiwAzrfagI8-YZht0rCE2Bt4-1sV3bay04cjXk2siB9oTMubmoaJ5AgZC3PCeBoC63sQAvD_BwE&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-14&amp;checkout=2024-11-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=229b5e2180ec0edf&amp;srepoch=1731590644&amp;all_sr_blocks=768066507_395595658_2_1_0&amp;highlighted_blocks=768066507_395595658_2_1_0&amp;matching_block_id=768066507_395595658_2_1_0&amp;sr_pri_blocks=768066507_395595658_2_1_0__27907200&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{35E0FAB2-FCA6-41E6-A51E-8730BC5E1983}"/>
-    <hyperlink ref="B22" r:id="rId30" display="https://www.booking.com/hotel/co/pietrasanta.es.html?label=gog235jc-1DCAsoMkILcGlldHJhc2FudGFIClgDaDKIAQGYAQq4ARjIAQzYAQPoAQH4AQKIAgGoAgS4Aor017kGwAIB0gIkMzU3YmMyYjgtNDM0Zi00ODQ2LWJkNjQtZTg5MTE0NDJmNTgy2AIE4AIB&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-14&amp;checkout=2024-11-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=d7cd5e4579d8027e&amp;srepoch=1731590721&amp;all_sr_blocks=66806509_335395889_2_41_0&amp;highlighted_blocks=66806509_335395889_2_41_0&amp;matching_block_id=66806509_335395889_2_41_0&amp;sr_pri_blocks=66806509_335395889_2_41_0__78300000&amp;from=searchresults" xr:uid="{F709242E-4058-4039-8E2A-124DA3305ECC}"/>
-    <hyperlink ref="B46" r:id="rId31" display="https://www.booking.com/hotel/co/mg-hotels-amp-suites.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=-596596&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;nflt=ht_id%3D204&amp;srpvid=013a96199ca30164&amp;srepoch=1731100866&amp;all_sr_blocks=204304209_94895693_0_1_0&amp;highlighted_blocks=204304209_94895693_0_1_0&amp;matching_block_id=204304209_94895693_0_1_0&amp;sr_pri_blocks=204304209_94895693_0_1_0__344088000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{695FB945-FA4D-434D-BE48-2AA63215E0DE}"/>
-    <hyperlink ref="B49" r:id="rId32" display="https://www.booking.com/hotel/co/cannua.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=4220225&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=a0719643630d0afc&amp;srepoch=1731100939&amp;all_sr_blocks=422022501_128088096_2_1_0&amp;highlighted_blocks=422022501_128088096_2_1_0&amp;matching_block_id=422022501_128088096_2_1_0&amp;sr_pri_blocks=422022501_128088096_2_1_0__555989111&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{25440CDD-51F4-46DC-8A4A-89EE1D694FF2}"/>
-    <hyperlink ref="B52" r:id="rId33" display="https://www.booking.com/hotel/co/glamping-the-mountain.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8570511&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=bd40951557cc0237&amp;srepoch=1731100334&amp;all_sr_blocks=857051102_373211362_0_1_0&amp;highlighted_blocks=857051102_373211362_0_1_0&amp;matching_block_id=857051102_373211362_0_1_0&amp;sr_pri_blocks=857051102_373211362_0_1_0__388800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{8C213763-DA26-4BD1-8587-4B75E8AC135D}"/>
-    <hyperlink ref="B53" r:id="rId34" display="https://www.booking.com/hotel/co/glmping-5-elementos-el-penol-a-30-minutos-de-guatape.es.html?label=gog235jc-1DCAsoMkI0Z2xtcGluZy01LWVsZW1lbnRvcy1lbC1wZW5vbC1hLTMwLW1pbnV0b3MtZGUtZ3VhdGFwZUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgC5PLXuQbAAgHSAiQzNmRlOWZlNy00MmY0LTQ0OWUtOWY0My03NTEwZjEzNTBjYzXYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-14&amp;checkout=2024-11-15&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1e6f5df2a94607cc&amp;srepoch=1731590552&amp;all_sr_blocks=1261771001_401045264_2_1_0_637070&amp;highlighted_blocks=1261771001_401045264_2_1_0_637070&amp;matching_block_id=1261771001_401045264_2_1_0_637070&amp;sr_pri_blocks=1261771001_401045264_2_1_0_637070_30800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{C068563A-EFD3-49B1-972D-A4A3C764B429}"/>
-    <hyperlink ref="B67" r:id="rId35" display="https://www.booking.com/hotel/co/bambu-guatape.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8871595&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=f3a395e09eb1055d&amp;srepoch=1731100740&amp;all_sr_blocks=887159510_377697257_2_2_0&amp;highlighted_blocks=887159510_377697257_2_2_0&amp;matching_block_id=887159510_377697257_2_2_0&amp;sr_pri_blocks=887159510_377697257_2_2_0__80514720&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{48A34EBB-AB3C-4D73-A1C1-98FB081FCE57}"/>
-    <hyperlink ref="B75" r:id="rId36" display="https://www.booking.com/hotel/co/san-simon-glamping.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1064978102_378886255_2_0_0;checkin=2024-11-22;checkout=2024-11-23;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=22;highlighted_blocks=1064978102_378886255_2_0_0;hpos=22;matching_block_id=1064978102_378886255_2_0_0;nflt=hotelfacility%3D4%3Bhotelfacility%3D107%3Bpopular_activities%3D63%3Bht_id%3D220%3Bht_id%3D213;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1064978102_378886255_2_0_0__26535600;srepoch=1723467604;srpvid=4deb5b36216c05f2;type=total;ucfs=1&amp;" xr:uid="{C65E4ACD-BE90-42DF-930A-2965414F034E}"/>
-    <hyperlink ref="B76" r:id="rId37" display="https://www.booking.com/hotel/co/cabanas-navegar.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=953678211_384057531_5_0_0;checkin=2024-09-06;checkout=2024-09-07;dest_id=9536782;dest_type=hotel;dist=0;group_adults=2;group_children=0;hapos=1;highlighted_blocks=953678211_384057531_5_0_0;hpos=1;matching_block_id=953678211_384057531_5_0_0;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=953678211_384057531_5_0_0__28188000;srepoch=1723469281;srpvid=fa945eaef1e90025;type=total;ucfs=1&amp;" xr:uid="{3A24B53C-C7BF-4ADB-9B20-D0CF6F05D313}"/>
-    <hyperlink ref="B77" r:id="rId38" display="https://www.booking.com/hotel/co/magic-view-el-penol-guatape.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1199563302_392231925_0_1_0;checkin=2024-09-06;checkout=2024-09-07;dest_id=11995633;dest_type=hotel;dist=0;group_adults=2;group_children=0;hapos=1;highlighted_blocks=1199563302_392231925_0_1_0;hpos=1;matching_block_id=1199563302_392231925_0_1_0;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1199563302_392231925_0_1_0__61600000;srepoch=1723469339;srpvid=49145ecc63d10254;type=total;ucfs=1&amp;" xr:uid="{6F41848E-6A2E-40C9-8DB8-9EEA4D00AF12}"/>
-    <hyperlink ref="B78" r:id="rId39" display="https://www.booking.com/hotel/co/refugio-del-lago-guatape.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1103691301_383203110_2_0_0;checkin=2024-09-06;checkout=2024-09-07;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=7;highlighted_blocks=1103691301_383203110_2_0_0;hpos=7;matching_block_id=1103691301_383203110_2_0_0;nflt=ht_id%3D220%3Bht_id%3D223%3Broomfacility%3D20%3Broomfacility%3D999;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1103691301_383203110_2_0_0__45000000;srepoch=1723467959;srpvid=52525bcd774e0055;type=total;ucfs=1&amp;" xr:uid="{6DD27192-CD48-4EC6-86FA-019BA59910E9}"/>
-    <hyperlink ref="B80" r:id="rId40" display="https://www.booking.com/hotel/co/suite-gold-rocks-glamping.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1175900602_390126003_2_41_0;checkin=2024-11-22;checkout=2024-11-23;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=2;highlighted_blocks=1175900602_390126003_2_41_0;hpos=2;matching_block_id=1175900602_390126003_2_41_0;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1175900602_390126003_2_41_0__19491840;srepoch=1723468321;srpvid=c22d5cbe60ff03bf;type=total;ucfs=1&amp;" xr:uid="{3254C3E0-51CD-4C3C-AA49-A7ABBA718EC0}"/>
-    <hyperlink ref="B81" r:id="rId41" display="https://www.booking.com/hotel/co/eco-lodge-glamping.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;atlas_src=hp_iw_btn&amp;checkin=2024-09-06&amp;checkout=2024-09-07&amp;dist=0&amp;group_adults=2&amp;group_children=0&amp;no_rooms=1&amp;room1=A%2CA&amp;sb_price_type=total&amp;srepoch=1723468510&amp;srpvid=458c5cfc1afd0260&amp;type=total&amp;" xr:uid="{C91C49E4-A9E3-4721-A06A-BEF5391EC4BA}"/>
-    <hyperlink ref="B82" r:id="rId42" display="https://www.booking.com/hotel/co/glamping-domo-geodesico-guatape.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=710786401_343638428_2_1_0;checkin=2024-11-22;checkout=2024-11-23;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=20;highlighted_blocks=710786401_343638428_2_1_0;hpos=20;matching_block_id=710786401_343638428_2_1_0;nflt=hotelfacility%3D4%3Bhotelfacility%3D107%3Bpopular_activities%3D63%3Bht_id%3D220%3Bht_id%3D213;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=710786401_343638428_2_1_0__52650000;srepoch=1723467581;srpvid=4deb5b36216c05f2;type=total;ucfs=1&amp;" xr:uid="{D308DA8A-5819-4E24-9283-8988B5A5E55E}"/>
-    <hyperlink ref="B83" r:id="rId43" display="https://www.booking.com/hotel/co/f3-cabanas-con-represa-y-glamping-penol-y-guatape.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1067150801_379114127_2_2_0;checkin=2024-09-06;checkout=2024-09-07;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=6;highlighted_blocks=1067150801_379114127_2_2_0;hpos=6;matching_block_id=1067150801_379114127_2_2_0;nflt=roomfacility%3D81%3Broomfacility%3D17%3Broomfacility%3D20%3Broomfacility%3D999;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1067150801_379114127_2_2_0__31500000;srepoch=1723469099;srpvid=52525bcd774e0055;type=total;ucfs=1&amp;" xr:uid="{A78AF755-3A9D-4888-BAE0-4D97B7D1C6AD}"/>
-    <hyperlink ref="B63" r:id="rId44" display="https://www.booking.com/hotel/co/glamping-the-mountain.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=8570511&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=bd40951557cc0237&amp;srepoch=1731100334&amp;all_sr_blocks=857051102_373211362_0_1_0&amp;highlighted_blocks=857051102_373211362_0_1_0&amp;matching_block_id=857051102_373211362_0_1_0&amp;sr_pri_blocks=857051102_373211362_0_1_0__388800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{F24EADFB-B7B1-48DA-B17C-52205221AFC8}"/>
-    <hyperlink ref="B64" r:id="rId45" display="https://www.booking.com/hotel/co/glmping-5-elementos-el-penol-a-30-minutos-de-guatape.es.html?label=gog235jc-1DCAsoMkI0Z2xtcGluZy01LWVsZW1lbnRvcy1lbC1wZW5vbC1hLTMwLW1pbnV0b3MtZGUtZ3VhdGFwZUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgC5PLXuQbAAgHSAiQzNmRlOWZlNy00MmY0LTQ0OWUtOWY0My03NTEwZjEzNTBjYzXYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-14&amp;checkout=2024-11-15&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1e6f5df2a94607cc&amp;srepoch=1731590552&amp;all_sr_blocks=1261771001_401045264_2_1_0_637070&amp;highlighted_blocks=1261771001_401045264_2_1_0_637070&amp;matching_block_id=1261771001_401045264_2_1_0_637070&amp;sr_pri_blocks=1261771001_401045264_2_1_0_637070_30800000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{03864B86-F9CD-4404-8845-CFF7F969DBE3}"/>
-    <hyperlink ref="B101" r:id="rId46" display="https://www.booking.com/hotel/co/espectacular-cabana-loft-en-guatape-jacuzzi.es.html?label=gog235jc-1DCAsoMkIrZXNwZWN0YWN1bGFyLWNhYmFuYS1sb2Z0LWVuLWd1YXRhcGUtamFjdXp6aUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgCs9uCugbAAgHSAiQyMzdiYjk2Ni03YmViLTQzY2ItYWY1OS02OTY1Mjk2MWRkM2HYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=9a3a721a345805b6&amp;srepoch=1732292048&amp;all_sr_blocks=1026227301_375368796_7_0_0&amp;highlighted_blocks=1026227301_375368796_7_0_0&amp;matching_block_id=1026227301_375368796_7_0_0&amp;sr_pri_blocks=1026227301_375368796_7_0_0__387000000&amp;from=searchresults" xr:uid="{23F89938-9348-4591-9941-F32F3805FBBE}"/>
-    <hyperlink ref="B71" r:id="rId47" display="https://www.booking.com/hotel/co/portobelo-guatape.es.html?label=metagha-link-LUCO-hotel-2302686_dev-desktop_los-1_bw-6_dow-Thursday_defdate-0_room-0_gstadt-2_rateid-public_aud-0_gacid-21415124842_mcid-10_ppa-0_clrid-0_ad-1_gstkid-0_checkin-20241128_ppt-_lp-2170_r-2332944182270452&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;utm_source=metagha&amp;utm_medium=localuniversal&amp;utm_term=hotel-2302686&amp;utm_content=dev-desktop_los-1_bw-6_dow-Thursday_defdate-0_room-0_gstadt-2_rateid-public_aud-0_gacid-21415124842_mcid-10_ppa-0_clrid-0_ad-1_gstkid-0_checkin-20241128_ppt-&amp;utm_campaign=CO&amp;gclid=CjwKCAiA9IC6BhA3EiwAsbltOBeGOwgHcwmelmrHhK9QjZa_ptdl6m3EHBTyD0UjQMdNxTg0aIXIchoCEsEQAvD_BwE&amp;aid=356938&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=c47b856e89b6047c&amp;srepoch=1732301940&amp;all_sr_blocks=230268610_403432295_2_0_0&amp;highlighted_blocks=230268610_403432295_2_0_0&amp;matching_block_id=230268610_403432295_2_0_0&amp;sr_pri_blocks=230268610_403432295_2_0_0__15000000&amp;from=searchresults" xr:uid="{A8170D06-850E-4AD7-866A-5CFBD3123F0C}"/>
-    <hyperlink ref="B70" r:id="rId48" display="https://www.booking.com/hotel/co/brisas-de-guatape-guatape4.es.html?label=metagha-link-LUCO-hotel-2302686_dev-desktop_los-1_bw-6_dow-Thursday_defdate-0_room-0_gstadt-2_rateid-public_aud-0_gacid-21415124842_mcid-10_ppa-0_clrid-0_ad-1_gstkid-0_checkin-20241128_ppt-_lp-2170_r-2332944182270452&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356938&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=13060975&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1a8185909337041d&amp;srepoch=1732302008&amp;all_sr_blocks=1306097503_403444141_0_1_0&amp;highlighted_blocks=1306097503_403444141_0_1_0&amp;matching_block_id=1306097503_403444141_0_1_0&amp;sr_pri_blocks=1306097503_403444141_0_1_0__10800000&amp;from=searchresults" xr:uid="{385D73A5-22C3-4E47-84E1-09E921EDBB62}"/>
-    <hyperlink ref="F58" r:id="rId49" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{31C851BC-5CE8-497B-B35C-A7DD3996DF85}"/>
-    <hyperlink ref="F59" r:id="rId50" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{19664CF9-6A84-4736-8F72-FA909320114C}"/>
-    <hyperlink ref="B58" r:id="rId51" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{68735CF6-F2B8-4131-9E56-DF8917608F00}"/>
-    <hyperlink ref="B72" r:id="rId52" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{F9E4BF84-3BB4-43A8-B759-A87B135BD381}"/>
-    <hyperlink ref="B57" r:id="rId53" display="https://www.booking.com/hotel/co/bramasole-boutique-el-penol-bogota.es.html?label=bin859jc-1DCAsoMkIiYnJhbWFzb2xlLWJvdXRpcXVlLWVsLXBlbm9sLWJvZ290YUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBA4gCAagCBLgC6q2DugbAAgHSAiRhZjNhYjYzNS01ODQyLTQ2MmMtOWU0Zi03NDFmOWFjNjFlZmHYAgTgAgE&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;aid=357028&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=900058844&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=2b2286b696960187&amp;srepoch=1732302596&amp;all_sr_blocks=1159062803_394849625_2_0_0&amp;highlighted_blocks=1159062803_394849625_2_0_0&amp;matching_block_id=1159062803_394849625_2_0_0&amp;sr_pri_blocks=1159062803_394849625_2_0_0__17100000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{ACD5660D-CFC1-4BAD-9BD4-2E87BC7707B2}"/>
-    <hyperlink ref="B59" r:id="rId54" display="https://www.booking.com/hotel/co/nomada-guatape.es.html?label=msn-qJCUd8*wq3ieTPmaNHUUww-79920942894960%3Atidat-2331720565597278%3Aloc-43%3Aneo%3Amtb%3Alp142114%3Adec%3AqsNomada+Hotel+Guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=qJCUd8*wq3ieTPmaNHUUww%3Fmsclkid%3D6707ee64c7f3192dde9a892410e6442b&amp;utm_content=Hotel_Domestic&amp;utm_campaign=Spanish_Colombia+ES+CO&amp;aid=1181029&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=dae686cfabf40186&amp;srepoch=1732302646&amp;all_sr_blocks=1118621209_384769496_2_2_0&amp;highlighted_blocks=1118621209_384769496_2_2_0&amp;matching_block_id=1118621209_384769496_2_2_0&amp;sr_pri_blocks=1118621209_384769496_2_2_0__9288000&amp;from=searchresults" xr:uid="{5B267712-6988-4B1F-890E-4BE8B5B26A4A}"/>
-    <hyperlink ref="B107" r:id="rId55" display="https://www.booking.com/hotel/co/vivanti-resort.es.html?label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQH4AQOIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIG4AIB&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=distance_from_search&amp;srpvid=ce39959ae6b00596&amp;srepoch=1731100601&amp;all_sr_blocks=1117293807_401806153_2_1_0_372951&amp;highlighted_blocks=1117293807_401806153_2_1_0_372951&amp;matching_block_id=1117293807_401806153_2_1_0_372951&amp;sr_pri_blocks=1117293807_401806153_2_1_0_372951_434816000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{D5D6C207-0374-4947-91A7-0DFD6EEE8E73}"/>
-    <hyperlink ref="B110" r:id="rId56" display="https://www.booking.com/hotel/co/rooca-guatape.es.html?label=gog235jc-1DCAsoMkINcm9vY2EtZ3VhdGFwZUgKWANoMogBAZgBCrgBGMgBDNgBA-gBAfgBAogCAagCBLgC7KGXugbAAgHSAiRjZjBjZmJiNS04NTU3LTQxM2EtOWY2My0xN2E1MTc0NTE0ZjjYAgTgAgE&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-12-14&amp;checkout=2024-12-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=1ada60b64fc50ac7&amp;srepoch=1732628768&amp;all_sr_blocks=1256101304_404221846_2_1_0&amp;highlighted_blocks=1256101304_404221846_2_1_0&amp;matching_block_id=1256101304_404221846_2_1_0&amp;sr_pri_blocks=1256101304_404221846_2_1_0__40500000&amp;from=searchresults" xr:uid="{0C24258F-2600-4FEA-A1CD-F664C21020E0}"/>
-    <hyperlink ref="B109" r:id="rId57" display="https://www.booking.com/hotel/co/la-magdalena-santuario.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=2278508&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=168b95b4972802fd&amp;srepoch=1731100653&amp;all_sr_blocks=227850807_335665585_2_1_0&amp;highlighted_blocks=227850807_335665585_2_1_0&amp;matching_block_id=227850807_335665585_2_1_0&amp;sr_pri_blocks=227850807_335665585_2_1_0__432900000&amp;from=searchresults" xr:uid="{3418345E-AB3C-4E12-88CE-41FCCD6800C5}"/>
-    <hyperlink ref="B112" r:id="rId58" display="https://www.booking.com/hotel/co/mansion-de-oriente.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Asv_ubkGwAIB0gIkYTZiYjIyZTAtZmU4Ni00MDExLWE2MDUtNTlhZjliZGQ4Mjlm2AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=2291786&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e98295bc625605a6&amp;srepoch=1731100669&amp;all_sr_blocks=229178609_211969538_2_41_0&amp;highlighted_blocks=229178609_211969538_2_41_0&amp;matching_block_id=229178609_211969538_2_41_0&amp;sr_pri_blocks=229178609_211969538_2_41_0__244800000&amp;from=searchresults" xr:uid="{DF5EFFD3-A015-48A0-B1F8-100D26DE7853}"/>
-    <hyperlink ref="B108" r:id="rId59" display="https://www.booking.com/hotel/co/1714-boutique.es.html?label=New_English_EN_CO_26767227745-8Pi8nSYrBsC68_fucp60dwS634117823889%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atidsa-162435870265%3Alp20198%3Ali%3Adec%3Adm%3Aag26767227745%3Acmp394643665&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;gclid=Cj0KCQiAgJa6BhCOARIsAMiL7V938QifTpL531d80AKT_T-9HsBthCu7uAyEQ9BtykZl6HqPq-AT3pwaAnC0EALw_wcB&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-12-14&amp;checkout=2024-12-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=577c60e85ecb0a82&amp;srepoch=1732628837&amp;all_sr_blocks=1038996506_388715163_2_1_0&amp;highlighted_blocks=1038996506_388715163_2_1_0&amp;matching_block_id=1038996506_388715163_2_1_0&amp;sr_pri_blocks=1038996506_388715163_2_1_0__42840000&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{C16416EB-10E5-498C-9BFF-0480536E0DF0}"/>
-    <hyperlink ref="B111" r:id="rId60" display="https://www.booking.com/hotel/co/santorini-guatape.es.html?label=santorini-guatape-adMVqiMFou2uglkXXB7DSwS477283917024%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-1298466778990%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;gclid=Cj0KCQiAgJa6BhCOARIsAMiL7V-XZYGHYi452WA1oTO-oxzPtMfbKwRYDd9YchoAygQPeAqvILb-IUUaAhh6EALw_wcB&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-12-14&amp;checkout=2024-12-15&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=3fbf61061dac0c47&amp;srepoch=1732628897&amp;all_sr_blocks=607348102_279428404_2_1_0&amp;highlighted_blocks=607348102_279428404_2_1_0&amp;matching_block_id=607348102_279428404_2_1_0&amp;sr_pri_blocks=607348102_279428404_2_1_0__32000000&amp;from=searchresults" xr:uid="{537910FA-2FAC-4C19-933F-937A8A26A77B}"/>
-    <hyperlink ref="B113" r:id="rId61" display="https://www.booking.com/hotel/co/cabanas-navegar.es-mx.html?label=Spanish_Colombia_ES_CO_20153959105-JvWA_BiunE_YalmU9PDZ_QS640874832178%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atidsa-162435870265%3Alp20198%3Ali%3Adec%3Adm%3Aag20153959105%3Acmp313803625&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-16&amp;checkout=2025-01-17&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=1&amp;req_children=1&amp;age=1&amp;req_age=1&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=93d05827e77d073c&amp;srepoch=1734611241&amp;all_sr_blocks=953678210_384057531_5_0_0&amp;highlighted_blocks=953678210_384057531_5_0_0&amp;matching_block_id=953678210_384057531_5_0_0&amp;sr_pri_blocks=953678210_384057531_5_0_0__31900000&amp;from=searchresults" xr:uid="{B9BC262B-F40B-41A9-8535-80FBF32D4607}"/>
-    <hyperlink ref="B114" r:id="rId62" display="https://www.booking.com/hotel/co/jordan-boutique.es-mx.html?label=gog235jc-1FCAsoMkIPam9yZGFuLWJvdXRpcXVlSApYA2gyiAEBmAEKuAEYyAEM2AEB6AEB-AECiAIBqAIEuALDjpK6BsACAdICJDBmODRiYWNjLWI5MmMtNDA1Zi04ZDg5LTZkZjFiMmFjZmZjMtgCBeACAQ&amp;sid=1ceb258b5da5325b1f375fc1eb8f6953&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-16&amp;checkout=2025-01-17&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=1&amp;req_children=1&amp;age=1&amp;req_age=1&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6fad584881ab0357&amp;srepoch=1734611308&amp;all_sr_blocks=768066504_405311183_2_1_0&amp;highlighted_blocks=768066504_405311183_2_1_0&amp;matching_block_id=768066504_405311183_2_1_0&amp;sr_pri_blocks=768066504_405311183_2_1_0__59664000&amp;from=searchresults" xr:uid="{185C8EC1-FCCC-45D8-B4CA-2E827A151EC9}"/>
-    <hyperlink ref="B115" r:id="rId63" display="https://www.booking.com/hotel/co/san-simon-glamping.es.html?aid=304142&amp;label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARjIAQzYAQHoAQH4AQyIAgGoAgS4AtaL6LUGwAIB0gIkNjdiNjQ5ZmQtMzJlYy00NmE1LThhOGUtMmU0ZmUyYTgxZjIz2AIG4AIB&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;all_sr_blocks=1064978102_378886255_2_0_0;checkin=2024-11-22;checkout=2024-11-23;dest_id=900058844;dest_type=city;dist=0;group_adults=2;group_children=0;hapos=22;highlighted_blocks=1064978102_378886255_2_0_0;hpos=22;matching_block_id=1064978102_378886255_2_0_0;nflt=hotelfacility%3D4%3Bhotelfacility%3D107%3Bpopular_activities%3D63%3Bht_id%3D220%3Bht_id%3D213;no_rooms=1;req_adults=2;req_children=0;room1=A%2CA;sb_price_type=total;sr_order=popularity;sr_pri_blocks=1064978102_378886255_2_0_0__26535600;srepoch=1723467604;srpvid=4deb5b36216c05f2;type=total;ucfs=1&amp;" xr:uid="{5B0D3E21-6F9E-4CD0-99A6-8D124A0D58E4}"/>
-    <hyperlink ref="B117" r:id="rId64" location="no_availability_msg" display="https://www.booking.com/hotel/co/the-boato-el-penol1.es.html?label=gen173nr-1BCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQGIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIF4AIB&amp;sid=4b0d2a11a7f716ea1fbbcbbef9dba78d&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-15&amp;checkout=2024-11-22&amp;dest_id=6718999&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=d59694989193006b&amp;srepoch=1731100085&amp;soh=1&amp;from_sustainable_property_sr=1&amp;from=searchresults - no_availability_msg" xr:uid="{4B01830B-1238-4C56-8439-66C4E9041E26}"/>
-    <hyperlink ref="B118" r:id="rId65" display="https://www.booking.com/hotel/co/donde-emilio.es.html?label=donde-emilio-i0x99QCjWAOLmeFKXo5FEgS338549907995%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-416223141545%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;gclid=Cj0KCQiAqL28BhCrARIsACYJvkd9OSEjtUBlVsX9mL-8710AbDRxkU1Tiz-xy9uGOYjyQ14Pz4G-0tMaAiJFEALw_wcB&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=-594819&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=eaf06b059e1f02b9&amp;srepoch=1737471974&amp;all_sr_blocks=218147808_97676213_2_1_0&amp;highlighted_blocks=218147808_97676213_2_1_0&amp;matching_block_id=218147808_97676213_2_1_0&amp;sr_pri_blocks=218147808_97676213_2_1_0__18000000&amp;from=searchresults" xr:uid="{C7C90B92-3340-4783-90C3-1C243C9CAEE2}"/>
-    <hyperlink ref="B119" r:id="rId66" location="no_availability_msg" display="https://www.booking.com/hotel/co/zi-one-luxury.es.html?label=zi-one-luxury-oNsdptaPsADFCtBBnQ596AS161719027587%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-483575388886%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;gclid=Cj0KCQiAqL28BhCrARIsACYJvkdkT68TJwpyGwoZ-Is7xODNdTPaPWopchtnwen0IvzvZwLE_-g1zvYaAiNyEALw_wcB&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=-594819&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=ab306b1e86530159&amp;srepoch=1737472047&amp;soh=1&amp;from=searchresults - no_availability_msg" xr:uid="{07A247E6-3AAD-430E-9850-0BBC6D42A8FC}"/>
-    <hyperlink ref="B121" r:id="rId67" display="https://www.booking.com/hotel/co/elite-rentar-apartamentos-amoblados.es.html?label=gog235jc-1DCAsoMkIjZWxpdGUtcmVudGFyLWFwYXJ0YW1lbnRvcy1hbW9ibGFkb3NIClgDaDKIAQGYAQq4ARjIAQzYAQPoAQH4AQKIAgGoAgS4AqX0vrwGwAIB0gIkYzZhZDc2NDktMmQ1Yi00ZjA1LWJlMTQtYjYzODY1MDU4MTg42AIE4AIB&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=-594819&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=71f06b53515a0d36&amp;srepoch=1737472133&amp;all_sr_blocks=190780812_92863450_2_0_0&amp;highlighted_blocks=190780812_92863450_2_0_0&amp;matching_block_id=190780812_92863450_2_0_0&amp;sr_pri_blocks=190780812_92863450_2_0_0__20000000&amp;from=searchresults" xr:uid="{24A835BF-AE59-4FF2-BA9B-A300300BFDE2}"/>
-    <hyperlink ref="B122" r:id="rId68" display="https://www.booking.com/hotel/co/gran.es.html?label=gran-X4YX6sTCDCs23IRITCP36AS175910999482%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-11613199358%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;gclid=Cj0KCQiAqL28BhCrARIsACYJvkdKe8f01L6CQflBaSsFBpuUD99w92mvv7dYGWODvd_0nRgTn396fRYaAnn1EALw_wcB&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=-594819&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=ffac6b69819d028a&amp;srepoch=1737472174&amp;all_sr_blocks=28152902_90970939_2_41_0&amp;highlighted_blocks=28152902_90970939_2_41_0&amp;matching_block_id=28152902_90970939_2_41_0&amp;sr_pri_blocks=28152902_90970939_2_41_0__25215300&amp;from=searchresults" xr:uid="{1539C865-ACB5-46FA-A9F4-09BF72F3262A}"/>
-    <hyperlink ref="B123" r:id="rId69" display="https://www.booking.com/hotel/co/abadia-plaza.es.html?label=abadia-plaza-mjGwQUTG8irIY4AXU8XqvwS388433469787%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-395006989431%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;gclid=Cj0KCQiAqL28BhCrARIsACYJvkeMPjsafT0SPltD-m3XuDLlSEQ0Rx732-PRvpp8y793gxDVk7ar-pEaAnPoEALw_wcB&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=-594819&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=4a346b85cd4f0252&amp;srepoch=1737472231&amp;all_sr_blocks=31076201_200143261_0_1_0_537544&amp;highlighted_blocks=31076201_200143261_0_1_0_537544&amp;matching_block_id=31076201_200143261_0_1_0_537544&amp;sr_pri_blocks=31076201_200143261_0_1_0_537544_29900000&amp;from=searchresults" xr:uid="{13CA17C9-FE36-41AB-B3B5-1E9FE9525E68}"/>
-    <hyperlink ref="B124" r:id="rId70" display="https://www.booking.com/hotel/ec/luxor-plaza-h-amp-s.es.html?label=abadia-plaza-mjGwQUTG8irIY4AXU8XqvwS388433469787%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi%3Atikwd-395006989431%3Alp20198%3Ali%3Adec%3Adm%3Appccp%3DUmFuZG9tSVYkc2RlIyh9YavywThF4buZaN3e9Rle2iM&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;aid=311839&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-01-22&amp;checkout=2025-01-23&amp;dest_id=9477160&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=ffac6b9650fb0715&amp;srepoch=1737472262&amp;all_sr_blocks=947716001_404523241_3_1_0_731294&amp;highlighted_blocks=947716001_404523241_3_1_0_731294&amp;matching_block_id=947716001_404523241_3_1_0_731294&amp;sr_pri_blocks=947716001_404523241_3_1_0_731294_8800&amp;from=searchresults" xr:uid="{44E1BD80-B749-4C46-A63C-DD801AF6B7F9}"/>
-    <hyperlink ref="B125" r:id="rId71" display="https://www.booking.com/hotel/co/guatatur.es.html?label=English_Colombia_EN_CO_29562107545-_WDZKP6aira3zHoJLRwvgQS217246346796%3Apl%3Ata%3Ap1%3Ap2%3Aac%3Aap%3Aneg%3Afi55625023303%3Atidsa-323233910078%3Alp20198%3Ali%3Adec%3Adm&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;aid=318615&amp;ucfs=1&amp;arphpl=1&amp;dest_id=315537&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=4a3461770b430677&amp;srepoch=1739800307&amp;from=searchresults" xr:uid="{67CA0F9E-B237-4844-A5CE-0FF965E003BB}"/>
-    <hyperlink ref="B126" r:id="rId72" display="https://www.booking.com/hotel/co/real-guatape.es.html?label=gog235jc-1DCAsoMkIaYnJpc2FzLWRlLWd1YXRhcGUtZ3VhdGFwZTNIClgDaDKIAQGYAQq4ARjIAQzYAQPoAQH4AQKIAgGoAgS4Aq3_zL0GwAIB0gIkMjEwMDkwOWEtOWQ3NC00MWEyLThiNWUtNDM0MDcxZTU1ZDVk2AIE4AIB&amp;sid=93fa566f322f808be7ab10c4661acff5&amp;aid=356980&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-02-17&amp;checkout=2025-02-18&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=6c4561d79bd9015a&amp;srepoch=1739800500&amp;all_sr_blocks=252263301_388495230_2_0_0&amp;highlighted_blocks=252263301_388495230_2_0_0&amp;matching_block_id=252263301_388495230_2_0_0&amp;sr_pri_blocks=252263301_388495230_2_0_0__6535920&amp;from=searchresults" xr:uid="{AF73F7DA-AE73-4805-9C9B-F23DCC6F4D9B}"/>
-    <hyperlink ref="B130" r:id="rId73" display="https://www.booking.com/hotel/co/san-remo.es.html?label=metagha-link-LUCO-hotel-1393911_dev-desktop_los-1_bw-0_dow-Tuesday_defdate-1_room-0_gstadt-2_rateid-public_aud-0_gacid-_mcid-10_ppa-0_clrid-0_ad-0_gstkid-0_checkin-20250408_ppt-Cg&amp;sid=e15799c2b173d0b049610b34edabe9a2&amp;aid=2127705&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-04-08&amp;checkout=2025-04-09&amp;dest_id=7774054&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=804662cfd28305f3&amp;srepoch=1744120992&amp;all_sr_blocks=777405403_357532783_2_41_0_441845&amp;highlighted_blocks=777405403_357532783_2_41_0_441845&amp;matching_block_id=777405403_357532783_2_41_0_441845&amp;sr_pri_blocks=777405403_357532783_2_41_0_441845_34500000&amp;from=searchresults" xr:uid="{78BCA209-DB6A-45E1-93EC-DB17BA291104}"/>
-    <hyperlink ref="B132" r:id="rId74" display="https://www.booking.com/hotel/co/bariloche.es.html?label=metagha-link-LUCO-hotel-1393911_dev-desktop_los-1_bw-0_dow-Tuesday_defdate-1_room-0_gstadt-2_rateid-public_aud-0_gacid-_mcid-10_ppa-0_clrid-0_ad-0_gstkid-0_checkin-20250408_ppt-Cg&amp;sid=e15799c2b173d0b049610b34edabe9a2&amp;aid=2127705&amp;ucfs=1&amp;arphpl=1&amp;checkin=2025-04-08&amp;checkout=2025-04-09&amp;dest_id=1301338&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=4deb6300920311b4&amp;srepoch=1744121090&amp;all_sr_blocks=130133806_200327289_2_1_0&amp;highlighted_blocks=130133806_200327289_2_1_0&amp;matching_block_id=130133806_200327289_2_1_0&amp;sr_pri_blocks=130133806_200327289_2_1_0__30740000&amp;from=searchresults" xr:uid="{CF86FEA4-10B4-4AB1-8918-2768FBEE377B}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.booking.com/hotel/co/arvum-boutique.es.html?label=gen173nr-1FCAEoggI46AdIM1gEaDKIAQGYAQq4ARfIARXYAQHoAQH4AQOIAgGoAgO4Auv6ubkGwAIB0gIkNDIxYWRlNzgtZGMxNy00ZTRiLWI1OTctZWE2NjQ2MGNiNGE52AIG4AIB&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-22&amp;checkout=2024-11-30&amp;dest_id=9108472&amp;dest_type=hotel&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=c9c2957d3a9f0ab7&amp;srepoch=1731100543&amp;all_sr_blocks=910847208_403437473_2_1_0&amp;highlighted_blocks=910847208_403437473_2_1_0&amp;matching_block_id=910847208_403437473_2_1_0&amp;sr_pri_blocks=910847208_403437473_2_1_0__363951706&amp;from_sustainable_property_sr=1&amp;from=searchresults" xr:uid="{84F74EAF-9377-47F2-8224-9350FD9A8512}"/>
+    <hyperlink ref="F58" r:id="rId2" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{31C851BC-5CE8-497B-B35C-A7DD3996DF85}"/>
+    <hyperlink ref="F59" r:id="rId3" display="https://www.booking.com/hotel/co/las-vegas-guatape.es.html?label=msn-u3xw61g22gHFZ*4MwXPLMA-80058326230557%3Atikwd-80058472695317%3Aloc-142114%3Aneo%3Amte%3Alp142114%3Adec%3Aqshotel+las+vegas+guatap%C3%A9&amp;sid=d0e7b2a1316f88f544ee0e1e96c3d09e&amp;utm_source=bing&amp;utm_medium=cpc&amp;utm_term=u3xw61g22gHFZ*4MwXPLMA&amp;utm_campaign=Hotel+-+Colombia+-+Guatape+-+UFI%3A-585862&amp;aid=2276454&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-11-28&amp;checkout=2024-11-29&amp;dest_id=-585862&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=6c96864edd6e008c&amp;srepoch=1732302388&amp;all_sr_blocks=228281201_275939749_0_0_0&amp;highlighted_blocks=228281201_275939749_0_0_0&amp;matching_block_id=228281201_275939749_0_0_0&amp;sr_pri_blocks=228281201_275939749_0_0_0__7110000&amp;from=searchresults" xr:uid="{19664CF9-6A84-4736-8F72-FA909320114C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId76"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4090,7 +1602,7 @@
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="15" customWidth="1"/>
@@ -4104,20 +1616,20 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4125,18 +1637,18 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="41">
+        <v>13</v>
+      </c>
+      <c r="C2" s="35">
         <v>16</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>16</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="29">
         <v>553500</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="32">
         <v>8856000</v>
       </c>
       <c r="G2" s="14">
@@ -4152,16 +1664,16 @@
         <f t="shared" ref="B3:B43" si="1">+B2</f>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="35">
         <v>16</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>16</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="30">
         <v>553500</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="33">
         <v>8856000</v>
       </c>
       <c r="G3" s="14">
@@ -4177,16 +1689,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <v>16</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <v>16</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="30">
         <v>553500</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="33">
         <v>8856000</v>
       </c>
       <c r="G4" s="14">
@@ -4202,16 +1714,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="35">
         <v>16</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="33">
         <v>0</v>
       </c>
       <c r="G5" s="14">
@@ -4227,16 +1739,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="35">
         <v>16</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="30">
         <v>362500</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="33">
         <v>725000</v>
       </c>
       <c r="G6" s="14">
@@ -4252,16 +1764,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="35">
         <v>16</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="33">
         <v>0</v>
       </c>
       <c r="G7" s="14">
@@ -4277,16 +1789,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="35">
         <v>16</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="30">
         <v>0</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="33">
         <v>0</v>
       </c>
       <c r="G8" s="14">
@@ -4302,16 +1814,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="35">
         <v>16</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="33">
         <v>0</v>
       </c>
       <c r="G9" s="14">
@@ -4327,16 +1839,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="35">
         <v>16</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="30">
         <v>357698</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="33">
         <v>357698</v>
       </c>
       <c r="G10" s="14">
@@ -4352,16 +1864,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="35">
         <v>16</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="30">
         <v>357698</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="33">
         <v>357698</v>
       </c>
       <c r="G11" s="14">
@@ -4377,16 +1889,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="35">
         <v>16</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="30">
         <v>409233</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="33">
         <v>1227698</v>
       </c>
       <c r="G12" s="14">
@@ -4402,16 +1914,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="35">
         <v>16</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="28">
         <v>9</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="30">
         <v>385411</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="33">
         <v>3468696</v>
       </c>
       <c r="G13" s="14">
@@ -4427,16 +1939,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="35">
         <v>16</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="28">
         <v>9</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="30">
         <v>388186</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="33">
         <v>3493673</v>
       </c>
       <c r="G14" s="14">
@@ -4452,16 +1964,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="35">
         <v>16</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="28">
         <v>5</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="30">
         <v>532540</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="33">
         <v>2662702</v>
       </c>
       <c r="G15" s="14">
@@ -4477,16 +1989,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="35">
         <v>16</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="28">
         <v>8</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <v>484635</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="33">
         <v>3877077</v>
       </c>
       <c r="G16" s="14">
@@ -4502,16 +2014,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="35">
         <v>16</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>16</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <v>483707</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="33">
         <v>7739315</v>
       </c>
       <c r="G17" s="14">
@@ -4527,16 +2039,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="35">
         <v>16</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="28">
         <v>17</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="30">
         <v>462685</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="33">
         <v>7865639</v>
       </c>
       <c r="G18" s="14">
@@ -4552,16 +2064,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="35">
         <v>16</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <v>16</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <v>453164</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="33">
         <v>7250627</v>
       </c>
       <c r="G19" s="14">
@@ -4577,16 +2089,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="35">
         <v>16</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>8</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="30">
         <v>468940</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="33">
         <v>3751519</v>
       </c>
       <c r="G20" s="14">
@@ -4602,16 +2114,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="35">
         <v>16</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <v>3</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="30">
         <v>150000</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="33">
         <v>450000</v>
       </c>
       <c r="G21" s="14">
@@ -4627,16 +2139,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="35">
         <v>16</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="28">
         <v>2</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="30">
         <v>252400</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="33">
         <v>504800</v>
       </c>
       <c r="G22" s="14">
@@ -4652,16 +2164,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="35">
         <v>16</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="28">
         <v>2</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="30">
         <v>390000</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="33">
         <v>780000</v>
       </c>
       <c r="G23" s="14">
@@ -4677,16 +2189,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="35">
         <v>16</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="28">
         <v>0</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="33">
         <v>0</v>
       </c>
       <c r="G24" s="14">
@@ -4702,16 +2214,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="35">
         <v>16</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="28">
         <v>0</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="30">
         <v>0</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="33">
         <v>0</v>
       </c>
       <c r="G25" s="14">
@@ -4727,16 +2239,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="35">
         <v>16</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="28">
         <v>0</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="30">
         <v>0</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="33">
         <v>0</v>
       </c>
       <c r="G26" s="14">
@@ -4752,16 +2264,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="35">
         <v>16</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="28">
         <v>4</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="30">
         <v>269822</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="33">
         <v>1079286</v>
       </c>
       <c r="G27" s="14">
@@ -4777,16 +2289,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="35">
         <v>16</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="28">
         <v>0</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="30">
         <v>0</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="33">
         <v>0</v>
       </c>
       <c r="G28" s="14">
@@ -4802,16 +2314,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="35">
         <v>16</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="28">
         <v>1</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="30">
         <v>391680</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="33">
         <v>391680</v>
       </c>
       <c r="G29" s="14">
@@ -4827,16 +2339,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="35">
         <v>16</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="28">
         <v>1</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="30">
         <v>391680</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="33">
         <v>391680</v>
       </c>
       <c r="G30" s="14">
@@ -4852,16 +2364,16 @@
         <f t="shared" si="1"/>
         <v>Hotel Brisas La Gaviota Mariquit-Tolima</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="35">
         <v>16</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="28">
         <v>2</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="30">
         <v>325840</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="33">
         <v>651680</v>
       </c>
       <c r="G31" s="14">
@@ -5029,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G44" s="14">
         <v>45748</v>
@@ -5573,7 +3085,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G86" s="14">
         <v>45748</v>
@@ -6117,12 +3629,12 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="41">
+        <v>11</v>
+      </c>
+      <c r="C128" s="35">
         <v>10</v>
       </c>
-      <c r="D128" s="34">
+      <c r="D128">
         <v>2</v>
       </c>
       <c r="E128" s="15">
@@ -6144,10 +3656,10 @@
         <f t="shared" ref="B129:B188" si="7">+B128</f>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C129" s="41">
+      <c r="C129" s="35">
         <v>10</v>
       </c>
-      <c r="D129" s="34">
+      <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" s="15">
@@ -6169,10 +3681,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C130" s="41">
+      <c r="C130" s="35">
         <v>10</v>
       </c>
-      <c r="D130" s="34">
+      <c r="D130">
         <v>2</v>
       </c>
       <c r="E130" s="15">
@@ -6194,10 +3706,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C131" s="41">
+      <c r="C131" s="35">
         <v>10</v>
       </c>
-      <c r="D131" s="34">
+      <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" s="15">
@@ -6219,10 +3731,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C132" s="41">
+      <c r="C132" s="35">
         <v>10</v>
       </c>
-      <c r="D132" s="34">
+      <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" s="15">
@@ -6244,10 +3756,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C133" s="41">
+      <c r="C133" s="35">
         <v>10</v>
       </c>
-      <c r="D133" s="34">
+      <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" s="15">
@@ -6269,10 +3781,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C134" s="41">
+      <c r="C134" s="35">
         <v>10</v>
       </c>
-      <c r="D134" s="34">
+      <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" s="15">
@@ -6294,10 +3806,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C135" s="41">
+      <c r="C135" s="35">
         <v>10</v>
       </c>
-      <c r="D135" s="34">
+      <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" s="15">
@@ -6319,10 +3831,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C136" s="41">
+      <c r="C136" s="35">
         <v>10</v>
       </c>
-      <c r="D136" s="34">
+      <c r="D136">
         <v>5</v>
       </c>
       <c r="E136" s="15">
@@ -6344,10 +3856,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C137" s="41">
+      <c r="C137" s="35">
         <v>10</v>
       </c>
-      <c r="D137" s="34">
+      <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" s="15">
@@ -6369,10 +3881,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C138" s="41">
+      <c r="C138" s="35">
         <v>10</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138">
         <v>3</v>
       </c>
       <c r="E138" s="15">
@@ -6394,10 +3906,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C139" s="41">
+      <c r="C139" s="35">
         <v>10</v>
       </c>
-      <c r="D139" s="34">
+      <c r="D139">
         <v>4</v>
       </c>
       <c r="E139" s="15">
@@ -6419,10 +3931,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C140" s="41">
+      <c r="C140" s="35">
         <v>10</v>
       </c>
-      <c r="D140" s="34">
+      <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" s="15">
@@ -6444,10 +3956,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C141" s="41">
+      <c r="C141" s="35">
         <v>10</v>
       </c>
-      <c r="D141" s="34">
+      <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" s="15">
@@ -6469,10 +3981,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C142" s="41">
+      <c r="C142" s="35">
         <v>10</v>
       </c>
-      <c r="D142" s="34">
+      <c r="D142">
         <v>5</v>
       </c>
       <c r="E142" s="15">
@@ -6494,10 +4006,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C143" s="41">
+      <c r="C143" s="35">
         <v>10</v>
       </c>
-      <c r="D143" s="34">
+      <c r="D143">
         <v>7</v>
       </c>
       <c r="E143" s="15">
@@ -6519,10 +4031,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C144" s="41">
+      <c r="C144" s="35">
         <v>10</v>
       </c>
-      <c r="D144" s="34">
+      <c r="D144">
         <v>9</v>
       </c>
       <c r="E144" s="15">
@@ -6544,10 +4056,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C145" s="41">
+      <c r="C145" s="35">
         <v>10</v>
       </c>
-      <c r="D145" s="34">
+      <c r="D145">
         <v>10</v>
       </c>
       <c r="E145" s="15">
@@ -6569,10 +4081,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C146" s="41">
+      <c r="C146" s="35">
         <v>10</v>
       </c>
-      <c r="D146" s="34">
+      <c r="D146">
         <v>2</v>
       </c>
       <c r="E146" s="15">
@@ -6594,10 +4106,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C147" s="41">
+      <c r="C147" s="35">
         <v>10</v>
       </c>
-      <c r="D147" s="34">
+      <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" s="15">
@@ -6619,10 +4131,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C148" s="41">
+      <c r="C148" s="35">
         <v>10</v>
       </c>
-      <c r="D148" s="34">
+      <c r="D148">
         <v>5</v>
       </c>
       <c r="E148" s="15">
@@ -6644,10 +4156,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C149" s="41">
+      <c r="C149" s="35">
         <v>10</v>
       </c>
-      <c r="D149" s="34">
+      <c r="D149">
         <v>3</v>
       </c>
       <c r="E149" s="15">
@@ -6669,10 +4181,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C150" s="41">
+      <c r="C150" s="35">
         <v>10</v>
       </c>
-      <c r="D150" s="34">
+      <c r="D150">
         <v>4</v>
       </c>
       <c r="E150" s="15">
@@ -6694,10 +4206,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C151" s="41">
+      <c r="C151" s="35">
         <v>10</v>
       </c>
-      <c r="D151" s="34">
+      <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" s="15">
@@ -6719,10 +4231,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C152" s="41">
+      <c r="C152" s="35">
         <v>10</v>
       </c>
-      <c r="D152" s="34">
+      <c r="D152">
         <v>0</v>
       </c>
       <c r="E152" s="15">
@@ -6744,10 +4256,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C153" s="41">
+      <c r="C153" s="35">
         <v>10</v>
       </c>
-      <c r="D153" s="34">
+      <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" s="15">
@@ -6769,10 +4281,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C154" s="41">
+      <c r="C154" s="35">
         <v>10</v>
       </c>
-      <c r="D154" s="34">
+      <c r="D154">
         <v>2</v>
       </c>
       <c r="E154" s="15">
@@ -6794,10 +4306,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C155" s="41">
+      <c r="C155" s="35">
         <v>10</v>
       </c>
-      <c r="D155" s="34">
+      <c r="D155">
         <v>2</v>
       </c>
       <c r="E155" s="15">
@@ -6819,10 +4331,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C156" s="41">
+      <c r="C156" s="35">
         <v>10</v>
       </c>
-      <c r="D156" s="34">
+      <c r="D156">
         <v>1</v>
       </c>
       <c r="E156" s="15">
@@ -6844,10 +4356,10 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C157" s="41">
+      <c r="C157" s="35">
         <v>10</v>
       </c>
-      <c r="D157" s="34">
+      <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" s="15">
@@ -6869,7 +4381,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C158" s="41">
+      <c r="C158" s="35">
         <v>10</v>
       </c>
       <c r="G158" s="14">
@@ -6885,7 +4397,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C159" s="41">
+      <c r="C159" s="35">
         <v>10</v>
       </c>
       <c r="G159" s="14">
@@ -6901,7 +4413,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C160" s="41">
+      <c r="C160" s="35">
         <v>10</v>
       </c>
       <c r="G160" s="14">
@@ -6917,7 +4429,7 @@
         <f t="shared" ref="B161:B179" si="8">+B156</f>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C161" s="41">
+      <c r="C161" s="35">
         <v>10</v>
       </c>
       <c r="G161" s="14">
@@ -6933,7 +4445,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C162" s="41">
+      <c r="C162" s="35">
         <v>10</v>
       </c>
       <c r="G162" s="14">
@@ -6949,7 +4461,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C163" s="41">
+      <c r="C163" s="35">
         <v>10</v>
       </c>
       <c r="G163" s="14">
@@ -6965,7 +4477,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C164" s="41">
+      <c r="C164" s="35">
         <v>10</v>
       </c>
       <c r="G164" s="14">
@@ -6981,7 +4493,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C165" s="41">
+      <c r="C165" s="35">
         <v>10</v>
       </c>
       <c r="G165" s="14">
@@ -6997,7 +4509,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C166" s="41">
+      <c r="C166" s="35">
         <v>10</v>
       </c>
       <c r="G166" s="14">
@@ -7013,7 +4525,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C167" s="41">
+      <c r="C167" s="35">
         <v>10</v>
       </c>
       <c r="G167" s="14">
@@ -7029,7 +4541,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C168" s="41">
+      <c r="C168" s="35">
         <v>10</v>
       </c>
       <c r="G168" s="14">
@@ -7045,7 +4557,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C169" s="41">
+      <c r="C169" s="35">
         <v>10</v>
       </c>
       <c r="G169" s="14">
@@ -7061,7 +4573,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C170" s="41">
+      <c r="C170" s="35">
         <v>10</v>
       </c>
       <c r="G170" s="14">
@@ -7077,7 +4589,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C171" s="41">
+      <c r="C171" s="35">
         <v>10</v>
       </c>
       <c r="G171" s="14">
@@ -7093,7 +4605,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C172" s="41">
+      <c r="C172" s="35">
         <v>10</v>
       </c>
       <c r="G172" s="14">
@@ -7109,7 +4621,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C173" s="41">
+      <c r="C173" s="35">
         <v>10</v>
       </c>
       <c r="G173" s="14">
@@ -7125,7 +4637,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C174" s="41">
+      <c r="C174" s="35">
         <v>10</v>
       </c>
       <c r="G174" s="14">
@@ -7141,7 +4653,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C175" s="41">
+      <c r="C175" s="35">
         <v>10</v>
       </c>
       <c r="G175" s="14">
@@ -7157,7 +4669,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C176" s="41">
+      <c r="C176" s="35">
         <v>10</v>
       </c>
       <c r="G176" s="14">
@@ -7173,7 +4685,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C177" s="41">
+      <c r="C177" s="35">
         <v>10</v>
       </c>
       <c r="G177" s="14">
@@ -7189,7 +4701,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C178" s="41">
+      <c r="C178" s="35">
         <v>10</v>
       </c>
       <c r="G178" s="14">
@@ -7205,7 +4717,7 @@
         <f t="shared" si="8"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C179" s="41">
+      <c r="C179" s="35">
         <v>10</v>
       </c>
       <c r="G179" s="14">
@@ -7217,7 +4729,7 @@
         <f t="shared" si="6"/>
         <v>GUATAPÉ</v>
       </c>
-      <c r="C180" s="41">
+      <c r="C180" s="35">
         <v>10</v>
       </c>
       <c r="D180">
@@ -7242,7 +4754,7 @@
         <f>+B176</f>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C181" s="41">
+      <c r="C181" s="35">
         <v>10</v>
       </c>
       <c r="G181" s="14">
@@ -7258,7 +4770,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C182" s="41">
+      <c r="C182" s="35">
         <v>10</v>
       </c>
       <c r="G182" s="14">
@@ -7274,7 +4786,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C183" s="41">
+      <c r="C183" s="35">
         <v>10</v>
       </c>
       <c r="G183" s="14">
@@ -7290,7 +4802,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C184" s="41">
+      <c r="C184" s="35">
         <v>10</v>
       </c>
       <c r="G184" s="14">
@@ -7306,7 +4818,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C185" s="41">
+      <c r="C185" s="35">
         <v>10</v>
       </c>
       <c r="G185" s="14">
@@ -7322,7 +4834,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C186" s="41">
+      <c r="C186" s="35">
         <v>10</v>
       </c>
       <c r="G186" s="14">
@@ -7338,7 +4850,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C187" s="41">
+      <c r="C187" s="35">
         <v>10</v>
       </c>
       <c r="G187" s="14">
@@ -7354,7 +4866,7 @@
         <f t="shared" si="7"/>
         <v>Hotel Spa Bliss Guatape</v>
       </c>
-      <c r="C188" s="41">
+      <c r="C188" s="35">
         <v>10</v>
       </c>
       <c r="D188">
@@ -7369,7 +4881,7 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G189" s="14">
         <v>45748</v>
@@ -7913,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G231" s="14">
         <v>45749</v>
@@ -8454,15 +5966,15 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>116</v>
-      </c>
-      <c r="C273" s="42">
+        <v>28</v>
+      </c>
+      <c r="C273" s="36">
         <v>8</v>
       </c>
-      <c r="D273" s="32">
+      <c r="D273">
         <v>3</v>
       </c>
       <c r="E273" s="15">
@@ -8484,10 +5996,10 @@
         <f t="shared" ref="B274:B314" si="14">+B273</f>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C274" s="42">
+      <c r="C274" s="36">
         <v>8</v>
       </c>
-      <c r="D274" s="32">
+      <c r="D274">
         <v>1</v>
       </c>
       <c r="E274" s="15">
@@ -8509,10 +6021,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C275" s="42">
+      <c r="C275" s="36">
         <v>8</v>
       </c>
-      <c r="D275" s="32">
+      <c r="D275">
         <v>4</v>
       </c>
       <c r="E275" s="15">
@@ -8534,10 +6046,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C276" s="42">
+      <c r="C276" s="36">
         <v>8</v>
       </c>
-      <c r="D276" s="32">
+      <c r="D276">
         <v>4</v>
       </c>
       <c r="E276" s="15">
@@ -8559,10 +6071,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C277" s="42">
+      <c r="C277" s="36">
         <v>8</v>
       </c>
-      <c r="D277" s="32">
+      <c r="D277">
         <v>5</v>
       </c>
       <c r="E277" s="15">
@@ -8584,10 +6096,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C278" s="42">
+      <c r="C278" s="36">
         <v>8</v>
       </c>
-      <c r="D278" s="32">
+      <c r="D278">
         <v>4</v>
       </c>
       <c r="E278" s="15">
@@ -8609,10 +6121,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C279" s="42">
+      <c r="C279" s="36">
         <v>8</v>
       </c>
-      <c r="D279" s="32">
+      <c r="D279">
         <v>1</v>
       </c>
       <c r="E279" s="15">
@@ -8624,7 +6136,7 @@
       <c r="G279" s="14">
         <v>45754</v>
       </c>
-      <c r="J279" s="27"/>
+      <c r="J279" s="25"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
@@ -8635,10 +6147,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C280" s="42">
+      <c r="C280" s="36">
         <v>8</v>
       </c>
-      <c r="D280" s="32">
+      <c r="D280">
         <v>4</v>
       </c>
       <c r="E280" s="15">
@@ -8650,7 +6162,7 @@
       <c r="G280" s="14">
         <v>45755</v>
       </c>
-      <c r="J280" s="28"/>
+      <c r="J280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
@@ -8661,10 +6173,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C281" s="42">
+      <c r="C281" s="36">
         <v>8</v>
       </c>
-      <c r="D281" s="32">
+      <c r="D281">
         <v>2</v>
       </c>
       <c r="E281" s="15">
@@ -8676,7 +6188,7 @@
       <c r="G281" s="14">
         <v>45756</v>
       </c>
-      <c r="J281" s="27"/>
+      <c r="J281" s="25"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
@@ -8687,10 +6199,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C282" s="42">
+      <c r="C282" s="36">
         <v>8</v>
       </c>
-      <c r="D282" s="32">
+      <c r="D282">
         <v>5</v>
       </c>
       <c r="E282" s="15">
@@ -8702,7 +6214,7 @@
       <c r="G282" s="14">
         <v>45757</v>
       </c>
-      <c r="J282" s="28"/>
+      <c r="J282" s="26"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
@@ -8713,10 +6225,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C283" s="42">
+      <c r="C283" s="36">
         <v>8</v>
       </c>
-      <c r="D283" s="32">
+      <c r="D283">
         <v>6</v>
       </c>
       <c r="E283" s="15">
@@ -8728,7 +6240,7 @@
       <c r="G283" s="14">
         <v>45758</v>
       </c>
-      <c r="J283" s="27"/>
+      <c r="J283" s="25"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="str">
@@ -8739,10 +6251,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C284" s="42">
+      <c r="C284" s="36">
         <v>8</v>
       </c>
-      <c r="D284" s="32">
+      <c r="D284">
         <v>7</v>
       </c>
       <c r="E284" s="15">
@@ -8754,7 +6266,7 @@
       <c r="G284" s="14">
         <v>45759</v>
       </c>
-      <c r="J284" s="28"/>
+      <c r="J284" s="26"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
@@ -8765,10 +6277,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C285" s="42">
+      <c r="C285" s="36">
         <v>8</v>
       </c>
-      <c r="D285" s="32">
+      <c r="D285">
         <v>5</v>
       </c>
       <c r="E285" s="15">
@@ -8780,7 +6292,7 @@
       <c r="G285" s="14">
         <v>45760</v>
       </c>
-      <c r="J285" s="27"/>
+      <c r="J285" s="25"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
@@ -8791,10 +6303,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C286" s="42">
+      <c r="C286" s="36">
         <v>8</v>
       </c>
-      <c r="D286" s="32">
+      <c r="D286">
         <v>7</v>
       </c>
       <c r="E286" s="15">
@@ -8806,7 +6318,7 @@
       <c r="G286" s="14">
         <v>45761</v>
       </c>
-      <c r="J286" s="28"/>
+      <c r="J286" s="26"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
@@ -8817,10 +6329,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C287" s="42">
+      <c r="C287" s="36">
         <v>8</v>
       </c>
-      <c r="D287" s="32">
+      <c r="D287">
         <v>6</v>
       </c>
       <c r="E287" s="15">
@@ -8832,7 +6344,7 @@
       <c r="G287" s="14">
         <v>45762</v>
       </c>
-      <c r="J287" s="27"/>
+      <c r="J287" s="25"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="str">
@@ -8843,10 +6355,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C288" s="42">
+      <c r="C288" s="36">
         <v>8</v>
       </c>
-      <c r="D288" s="32">
+      <c r="D288">
         <v>7</v>
       </c>
       <c r="E288" s="15">
@@ -8858,7 +6370,7 @@
       <c r="G288" s="14">
         <v>45763</v>
       </c>
-      <c r="J288" s="28"/>
+      <c r="J288" s="26"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="str">
@@ -8869,10 +6381,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C289" s="42">
+      <c r="C289" s="36">
         <v>8</v>
       </c>
-      <c r="D289" s="32">
+      <c r="D289">
         <v>8</v>
       </c>
       <c r="E289" s="15">
@@ -8884,7 +6396,7 @@
       <c r="G289" s="14">
         <v>45764</v>
       </c>
-      <c r="J289" s="27"/>
+      <c r="J289" s="25"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
@@ -8895,10 +6407,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C290" s="42">
+      <c r="C290" s="36">
         <v>8</v>
       </c>
-      <c r="D290" s="32">
+      <c r="D290">
         <v>8</v>
       </c>
       <c r="E290" s="15">
@@ -8910,7 +6422,7 @@
       <c r="G290" s="14">
         <v>45765</v>
       </c>
-      <c r="J290" s="28"/>
+      <c r="J290" s="26"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
@@ -8921,10 +6433,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C291" s="42">
+      <c r="C291" s="36">
         <v>8</v>
       </c>
-      <c r="D291" s="32">
+      <c r="D291">
         <v>8</v>
       </c>
       <c r="E291" s="15">
@@ -8936,7 +6448,7 @@
       <c r="G291" s="14">
         <v>45766</v>
       </c>
-      <c r="J291" s="27"/>
+      <c r="J291" s="25"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="str">
@@ -8947,10 +6459,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C292" s="42">
+      <c r="C292" s="36">
         <v>8</v>
       </c>
-      <c r="D292" s="32">
+      <c r="D292">
         <v>4</v>
       </c>
       <c r="E292" s="15">
@@ -8962,7 +6474,7 @@
       <c r="G292" s="14">
         <v>45767</v>
       </c>
-      <c r="J292" s="28"/>
+      <c r="J292" s="26"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="str">
@@ -8973,10 +6485,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C293" s="42">
+      <c r="C293" s="36">
         <v>8</v>
       </c>
-      <c r="D293" s="32">
+      <c r="D293">
         <v>5</v>
       </c>
       <c r="E293" s="15">
@@ -8988,7 +6500,7 @@
       <c r="G293" s="14">
         <v>45768</v>
       </c>
-      <c r="J293" s="27"/>
+      <c r="J293" s="25"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
@@ -8999,10 +6511,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C294" s="42">
+      <c r="C294" s="36">
         <v>8</v>
       </c>
-      <c r="D294" s="32">
+      <c r="D294">
         <v>3</v>
       </c>
       <c r="E294" s="15">
@@ -9014,7 +6526,7 @@
       <c r="G294" s="14">
         <v>45769</v>
       </c>
-      <c r="J294" s="28"/>
+      <c r="J294" s="26"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
@@ -9025,10 +6537,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C295" s="42">
+      <c r="C295" s="36">
         <v>8</v>
       </c>
-      <c r="D295" s="32">
+      <c r="D295">
         <v>2</v>
       </c>
       <c r="E295" s="15">
@@ -9040,7 +6552,7 @@
       <c r="G295" s="14">
         <v>45770</v>
       </c>
-      <c r="J295" s="27"/>
+      <c r="J295" s="25"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="str">
@@ -9051,10 +6563,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C296" s="42">
+      <c r="C296" s="36">
         <v>8</v>
       </c>
-      <c r="D296" s="32">
+      <c r="D296">
         <v>4</v>
       </c>
       <c r="E296" s="15">
@@ -9066,7 +6578,7 @@
       <c r="G296" s="14">
         <v>45771</v>
       </c>
-      <c r="J296" s="28"/>
+      <c r="J296" s="26"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
@@ -9077,10 +6589,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C297" s="42">
+      <c r="C297" s="36">
         <v>8</v>
       </c>
-      <c r="D297" s="32">
+      <c r="D297">
         <v>6</v>
       </c>
       <c r="E297" s="15">
@@ -9092,7 +6604,7 @@
       <c r="G297" s="14">
         <v>45772</v>
       </c>
-      <c r="J297" s="27"/>
+      <c r="J297" s="25"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="str">
@@ -9103,10 +6615,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C298" s="42">
+      <c r="C298" s="36">
         <v>8</v>
       </c>
-      <c r="D298" s="32">
+      <c r="D298">
         <v>8</v>
       </c>
       <c r="E298" s="15">
@@ -9118,7 +6630,7 @@
       <c r="G298" s="14">
         <v>45773</v>
       </c>
-      <c r="J298" s="28"/>
+      <c r="J298" s="26"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="str">
@@ -9129,10 +6641,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C299" s="42">
+      <c r="C299" s="36">
         <v>8</v>
       </c>
-      <c r="D299" s="32">
+      <c r="D299">
         <v>7</v>
       </c>
       <c r="E299" s="15">
@@ -9144,7 +6656,7 @@
       <c r="G299" s="14">
         <v>45774</v>
       </c>
-      <c r="J299" s="27"/>
+      <c r="J299" s="25"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="str">
@@ -9155,10 +6667,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C300" s="42">
+      <c r="C300" s="36">
         <v>8</v>
       </c>
-      <c r="D300" s="32">
+      <c r="D300">
         <v>7</v>
       </c>
       <c r="E300" s="15">
@@ -9170,7 +6682,7 @@
       <c r="G300" s="14">
         <v>45775</v>
       </c>
-      <c r="J300" s="28"/>
+      <c r="J300" s="26"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="str">
@@ -9181,10 +6693,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C301" s="42">
+      <c r="C301" s="36">
         <v>8</v>
       </c>
-      <c r="D301" s="32">
+      <c r="D301">
         <v>3</v>
       </c>
       <c r="E301" s="15">
@@ -9196,7 +6708,7 @@
       <c r="G301" s="14">
         <v>45776</v>
       </c>
-      <c r="J301" s="27"/>
+      <c r="J301" s="25"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="str">
@@ -9207,10 +6719,10 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C302" s="42">
+      <c r="C302" s="36">
         <v>8</v>
       </c>
-      <c r="D302" s="32">
+      <c r="D302">
         <v>4</v>
       </c>
       <c r="E302" s="15">
@@ -9222,7 +6734,7 @@
       <c r="G302" s="14">
         <v>45777</v>
       </c>
-      <c r="J302" s="28"/>
+      <c r="J302" s="26"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
@@ -9233,12 +6745,12 @@
         <f t="shared" si="14"/>
         <v>Marina Navegar- El peñol, Guatape</v>
       </c>
-      <c r="C303" s="42"/>
+      <c r="C303" s="36"/>
       <c r="D303" s="16"/>
       <c r="G303" s="14">
         <v>45778</v>
       </c>
-      <c r="J303" s="27"/>
+      <c r="J303" s="25"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="str">
@@ -9252,7 +6764,7 @@
       <c r="G304" s="14">
         <v>45779</v>
       </c>
-      <c r="J304" s="28"/>
+      <c r="J304" s="26"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="str">
@@ -9266,7 +6778,7 @@
       <c r="G305" s="14">
         <v>45780</v>
       </c>
-      <c r="J305" s="27"/>
+      <c r="J305" s="25"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="str">
@@ -9280,7 +6792,7 @@
       <c r="G306" s="14">
         <v>45781</v>
       </c>
-      <c r="J306" s="28"/>
+      <c r="J306" s="26"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="str">
@@ -9294,7 +6806,7 @@
       <c r="G307" s="14">
         <v>45782</v>
       </c>
-      <c r="J307" s="27"/>
+      <c r="J307" s="25"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="str">
@@ -9308,7 +6820,7 @@
       <c r="G308" s="14">
         <v>45783</v>
       </c>
-      <c r="J308" s="28"/>
+      <c r="J308" s="26"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
@@ -9393,7 +6905,7 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G315" s="14">
         <v>45748</v>
@@ -9934,15 +7446,15 @@
     </row>
     <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B357" t="s">
-        <v>135</v>
-      </c>
-      <c r="C357" s="41">
+        <v>37</v>
+      </c>
+      <c r="C357" s="35">
         <v>10</v>
       </c>
-      <c r="D357" s="29">
+      <c r="D357">
         <v>2</v>
       </c>
       <c r="E357" s="15">
@@ -9957,15 +7469,15 @@
     </row>
     <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B358" t="s">
-        <v>135</v>
-      </c>
-      <c r="C358" s="41">
+        <v>37</v>
+      </c>
+      <c r="C358" s="35">
         <v>10</v>
       </c>
-      <c r="D358" s="29">
+      <c r="D358">
         <v>0</v>
       </c>
       <c r="E358" s="15">
@@ -9980,15 +7492,15 @@
     </row>
     <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B359" t="s">
-        <v>135</v>
-      </c>
-      <c r="C359" s="41">
+        <v>37</v>
+      </c>
+      <c r="C359" s="35">
         <v>10</v>
       </c>
-      <c r="D359" s="29">
+      <c r="D359">
         <v>0</v>
       </c>
       <c r="E359" s="15">
@@ -10003,15 +7515,15 @@
     </row>
     <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B360" t="s">
-        <v>135</v>
-      </c>
-      <c r="C360" s="41">
+        <v>37</v>
+      </c>
+      <c r="C360" s="35">
         <v>10</v>
       </c>
-      <c r="D360" s="29">
+      <c r="D360">
         <v>0</v>
       </c>
       <c r="E360" s="15">
@@ -10026,15 +7538,15 @@
     </row>
     <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>135</v>
-      </c>
-      <c r="C361" s="41">
+        <v>37</v>
+      </c>
+      <c r="C361" s="35">
         <v>10</v>
       </c>
-      <c r="D361" s="29">
+      <c r="D361">
         <v>1</v>
       </c>
       <c r="E361" s="15">
@@ -10049,15 +7561,15 @@
     </row>
     <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B362" t="s">
-        <v>135</v>
-      </c>
-      <c r="C362" s="41">
+        <v>37</v>
+      </c>
+      <c r="C362" s="35">
         <v>10</v>
       </c>
-      <c r="D362" s="29">
+      <c r="D362">
         <v>0</v>
       </c>
       <c r="E362" s="15">
@@ -10072,15 +7584,15 @@
     </row>
     <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B363" t="s">
-        <v>135</v>
-      </c>
-      <c r="C363" s="41">
+        <v>37</v>
+      </c>
+      <c r="C363" s="35">
         <v>10</v>
       </c>
-      <c r="D363" s="29">
+      <c r="D363">
         <v>0</v>
       </c>
       <c r="E363" s="15">
@@ -10095,15 +7607,15 @@
     </row>
     <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B364" t="s">
-        <v>135</v>
-      </c>
-      <c r="C364" s="41">
+        <v>37</v>
+      </c>
+      <c r="C364" s="35">
         <v>10</v>
       </c>
-      <c r="D364" s="29">
+      <c r="D364">
         <v>1</v>
       </c>
       <c r="E364" s="15">
@@ -10118,15 +7630,15 @@
     </row>
     <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B365" t="s">
-        <v>135</v>
-      </c>
-      <c r="C365" s="41">
+        <v>37</v>
+      </c>
+      <c r="C365" s="35">
         <v>10</v>
       </c>
-      <c r="D365" s="29">
+      <c r="D365">
         <v>1</v>
       </c>
       <c r="E365" s="15">
@@ -10141,15 +7653,15 @@
     </row>
     <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B366" t="s">
-        <v>135</v>
-      </c>
-      <c r="C366" s="41">
+        <v>37</v>
+      </c>
+      <c r="C366" s="35">
         <v>10</v>
       </c>
-      <c r="D366" s="29">
+      <c r="D366">
         <v>0</v>
       </c>
       <c r="E366" s="15">
@@ -10164,15 +7676,15 @@
     </row>
     <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B367" t="s">
-        <v>135</v>
-      </c>
-      <c r="C367" s="41">
+        <v>37</v>
+      </c>
+      <c r="C367" s="35">
         <v>10</v>
       </c>
-      <c r="D367" s="29">
+      <c r="D367">
         <v>3</v>
       </c>
       <c r="E367" s="15">
@@ -10187,15 +7699,15 @@
     </row>
     <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B368" t="s">
-        <v>135</v>
-      </c>
-      <c r="C368" s="41">
+        <v>37</v>
+      </c>
+      <c r="C368" s="35">
         <v>10</v>
       </c>
-      <c r="D368" s="29">
+      <c r="D368">
         <v>6</v>
       </c>
       <c r="E368" s="15">
@@ -10210,15 +7722,15 @@
     </row>
     <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B369" t="s">
-        <v>135</v>
-      </c>
-      <c r="C369" s="41">
+        <v>37</v>
+      </c>
+      <c r="C369" s="35">
         <v>10</v>
       </c>
-      <c r="D369" s="29">
+      <c r="D369">
         <v>6</v>
       </c>
       <c r="E369" s="15">
@@ -10233,15 +7745,15 @@
     </row>
     <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B370" t="s">
-        <v>135</v>
-      </c>
-      <c r="C370" s="41">
+        <v>37</v>
+      </c>
+      <c r="C370" s="35">
         <v>10</v>
       </c>
-      <c r="D370" s="29">
+      <c r="D370">
         <v>5</v>
       </c>
       <c r="E370" s="15">
@@ -10256,15 +7768,15 @@
     </row>
     <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B371" t="s">
-        <v>135</v>
-      </c>
-      <c r="C371" s="41">
+        <v>37</v>
+      </c>
+      <c r="C371" s="35">
         <v>10</v>
       </c>
-      <c r="D371" s="29">
+      <c r="D371">
         <v>7</v>
       </c>
       <c r="E371" s="15">
@@ -10279,15 +7791,15 @@
     </row>
     <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B372" t="s">
-        <v>135</v>
-      </c>
-      <c r="C372" s="41">
+        <v>37</v>
+      </c>
+      <c r="C372" s="35">
         <v>10</v>
       </c>
-      <c r="D372" s="29">
+      <c r="D372">
         <v>8</v>
       </c>
       <c r="E372" s="15">
@@ -10302,15 +7814,15 @@
     </row>
     <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B373" t="s">
-        <v>135</v>
-      </c>
-      <c r="C373" s="41">
+        <v>37</v>
+      </c>
+      <c r="C373" s="35">
         <v>10</v>
       </c>
-      <c r="D373" s="29">
+      <c r="D373">
         <v>10</v>
       </c>
       <c r="E373" s="15">
@@ -10325,15 +7837,15 @@
     </row>
     <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B374" t="s">
-        <v>135</v>
-      </c>
-      <c r="C374" s="41">
+        <v>37</v>
+      </c>
+      <c r="C374" s="35">
         <v>10</v>
       </c>
-      <c r="D374" s="29">
+      <c r="D374">
         <v>10</v>
       </c>
       <c r="E374" s="15">
@@ -10348,15 +7860,15 @@
     </row>
     <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B375" t="s">
-        <v>135</v>
-      </c>
-      <c r="C375" s="41">
+        <v>37</v>
+      </c>
+      <c r="C375" s="35">
         <v>10</v>
       </c>
-      <c r="D375" s="29">
+      <c r="D375">
         <v>4</v>
       </c>
       <c r="E375" s="15">
@@ -10371,15 +7883,15 @@
     </row>
     <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B376" t="s">
-        <v>135</v>
-      </c>
-      <c r="C376" s="41">
+        <v>37</v>
+      </c>
+      <c r="C376" s="35">
         <v>10</v>
       </c>
-      <c r="D376" s="29">
+      <c r="D376">
         <v>0</v>
       </c>
       <c r="E376" s="15">
@@ -10394,15 +7906,15 @@
     </row>
     <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B377" t="s">
-        <v>135</v>
-      </c>
-      <c r="C377" s="41">
+        <v>37</v>
+      </c>
+      <c r="C377" s="35">
         <v>10</v>
       </c>
-      <c r="D377" s="29">
+      <c r="D377">
         <v>0</v>
       </c>
       <c r="E377" s="15">
@@ -10417,15 +7929,15 @@
     </row>
     <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B378" t="s">
-        <v>135</v>
-      </c>
-      <c r="C378" s="41">
+        <v>37</v>
+      </c>
+      <c r="C378" s="35">
         <v>10</v>
       </c>
-      <c r="D378" s="29">
+      <c r="D378">
         <v>2</v>
       </c>
       <c r="E378" s="15">
@@ -10440,15 +7952,15 @@
     </row>
     <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B379" t="s">
-        <v>135</v>
-      </c>
-      <c r="C379" s="41">
+        <v>37</v>
+      </c>
+      <c r="C379" s="35">
         <v>10</v>
       </c>
-      <c r="D379" s="29">
+      <c r="D379">
         <v>2</v>
       </c>
       <c r="E379" s="15">
@@ -10463,15 +7975,15 @@
     </row>
     <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B380" t="s">
-        <v>135</v>
-      </c>
-      <c r="C380" s="41">
+        <v>37</v>
+      </c>
+      <c r="C380" s="35">
         <v>10</v>
       </c>
-      <c r="D380" s="29">
+      <c r="D380">
         <v>1</v>
       </c>
       <c r="E380" s="15">
@@ -10486,15 +7998,15 @@
     </row>
     <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B381" t="s">
-        <v>135</v>
-      </c>
-      <c r="C381" s="41">
+        <v>37</v>
+      </c>
+      <c r="C381" s="35">
         <v>10</v>
       </c>
-      <c r="D381" s="29">
+      <c r="D381">
         <v>2</v>
       </c>
       <c r="E381" s="15">
@@ -10509,15 +8021,15 @@
     </row>
     <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B382" t="s">
-        <v>135</v>
-      </c>
-      <c r="C382" s="41">
+        <v>37</v>
+      </c>
+      <c r="C382" s="35">
         <v>10</v>
       </c>
-      <c r="D382" s="29">
+      <c r="D382">
         <v>3</v>
       </c>
       <c r="E382" s="15">
@@ -10532,15 +8044,15 @@
     </row>
     <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B383" t="s">
-        <v>135</v>
-      </c>
-      <c r="C383" s="41">
+        <v>37</v>
+      </c>
+      <c r="C383" s="35">
         <v>10</v>
       </c>
-      <c r="D383" s="29">
+      <c r="D383">
         <v>1</v>
       </c>
       <c r="E383" s="15">
@@ -10555,15 +8067,15 @@
     </row>
     <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B384" t="s">
-        <v>135</v>
-      </c>
-      <c r="C384" s="41">
+        <v>37</v>
+      </c>
+      <c r="C384" s="35">
         <v>10</v>
       </c>
-      <c r="D384" s="29">
+      <c r="D384">
         <v>0</v>
       </c>
       <c r="E384" s="15">
@@ -10578,15 +8090,15 @@
     </row>
     <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B385" t="s">
-        <v>135</v>
-      </c>
-      <c r="C385" s="41">
+        <v>37</v>
+      </c>
+      <c r="C385" s="35">
         <v>10</v>
       </c>
-      <c r="D385" s="29">
+      <c r="D385">
         <v>1</v>
       </c>
       <c r="E385" s="15">
@@ -10601,15 +8113,15 @@
     </row>
     <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B386" t="s">
-        <v>135</v>
-      </c>
-      <c r="C386" s="41">
+        <v>37</v>
+      </c>
+      <c r="C386" s="35">
         <v>10</v>
       </c>
-      <c r="D386" s="29">
+      <c r="D386">
         <v>1</v>
       </c>
       <c r="E386" s="15">
@@ -10624,10 +8136,10 @@
     </row>
     <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B387" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G387" s="14">
         <v>45778</v>
@@ -10635,10 +8147,10 @@
     </row>
     <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B388" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G388" s="14">
         <v>45779</v>
@@ -10646,10 +8158,10 @@
     </row>
     <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B389" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G389" s="14">
         <v>45780</v>
@@ -10657,10 +8169,10 @@
     </row>
     <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B390" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G390" s="14">
         <v>45781</v>
@@ -10668,10 +8180,10 @@
     </row>
     <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B391" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G391" s="14">
         <v>45782</v>
@@ -10679,10 +8191,10 @@
     </row>
     <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B392" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G392" s="14">
         <v>45783</v>
@@ -10690,10 +8202,10 @@
     </row>
     <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B393" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G393" s="14">
         <v>45784</v>
@@ -10701,10 +8213,10 @@
     </row>
     <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B394" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G394" s="14">
         <v>45785</v>
@@ -10712,10 +8224,10 @@
     </row>
     <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B395" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G395" s="14">
         <v>45786</v>
@@ -10723,10 +8235,10 @@
     </row>
     <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B396" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G396" s="14">
         <v>45787</v>
@@ -10734,10 +8246,10 @@
     </row>
     <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B397" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G397" s="14">
         <v>45788</v>
@@ -10745,10 +8257,10 @@
     </row>
     <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B398" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G398" s="14">
         <v>45789</v>
@@ -10759,12 +8271,12 @@
         <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>148</v>
-      </c>
-      <c r="C399" s="41">
+        <v>38</v>
+      </c>
+      <c r="C399" s="35">
         <v>11</v>
       </c>
-      <c r="D399" s="33">
+      <c r="D399">
         <v>0</v>
       </c>
       <c r="E399" s="15">
@@ -10786,10 +8298,10 @@
         <f t="shared" ref="B400:B440" si="18">+B399</f>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C400" s="41">
+      <c r="C400" s="35">
         <v>11</v>
       </c>
-      <c r="D400" s="33">
+      <c r="D400">
         <v>0</v>
       </c>
       <c r="E400" s="15">
@@ -10811,10 +8323,10 @@
         <f t="shared" si="19"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C401" s="41">
+      <c r="C401" s="35">
         <v>11</v>
       </c>
-      <c r="D401" s="33">
+      <c r="D401">
         <v>0</v>
       </c>
       <c r="E401" s="15">
@@ -10836,10 +8348,10 @@
         <f t="shared" si="19"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C402" s="41">
+      <c r="C402" s="35">
         <v>11</v>
       </c>
-      <c r="D402" s="33">
+      <c r="D402">
         <v>2</v>
       </c>
       <c r="E402" s="15">
@@ -10861,10 +8373,10 @@
         <f t="shared" si="19"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C403" s="41">
+      <c r="C403" s="35">
         <v>11</v>
       </c>
-      <c r="D403" s="33">
+      <c r="D403">
         <v>6</v>
       </c>
       <c r="E403" s="15">
@@ -10886,10 +8398,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C404" s="41">
+      <c r="C404" s="35">
         <v>11</v>
       </c>
-      <c r="D404" s="33">
+      <c r="D404">
         <v>0</v>
       </c>
       <c r="E404" s="15">
@@ -10911,10 +8423,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C405" s="41">
+      <c r="C405" s="35">
         <v>11</v>
       </c>
-      <c r="D405" s="33">
+      <c r="D405">
         <v>2</v>
       </c>
       <c r="E405" s="15">
@@ -10936,10 +8448,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C406" s="41">
+      <c r="C406" s="35">
         <v>11</v>
       </c>
-      <c r="D406" s="33">
+      <c r="D406">
         <v>1</v>
       </c>
       <c r="E406" s="15">
@@ -10961,10 +8473,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C407" s="41">
+      <c r="C407" s="35">
         <v>11</v>
       </c>
-      <c r="D407" s="33">
+      <c r="D407">
         <v>0</v>
       </c>
       <c r="E407" s="15">
@@ -10986,10 +8498,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C408" s="41">
+      <c r="C408" s="35">
         <v>11</v>
       </c>
-      <c r="D408" s="33">
+      <c r="D408">
         <v>2</v>
       </c>
       <c r="E408" s="15">
@@ -11011,10 +8523,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C409" s="41">
+      <c r="C409" s="35">
         <v>11</v>
       </c>
-      <c r="D409" s="33">
+      <c r="D409">
         <v>1</v>
       </c>
       <c r="E409" s="15">
@@ -11036,10 +8548,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C410" s="41">
+      <c r="C410" s="35">
         <v>11</v>
       </c>
-      <c r="D410" s="33">
+      <c r="D410">
         <v>10</v>
       </c>
       <c r="E410" s="15">
@@ -11061,10 +8573,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C411" s="41">
+      <c r="C411" s="35">
         <v>11</v>
       </c>
-      <c r="D411" s="33">
+      <c r="D411">
         <v>5</v>
       </c>
       <c r="E411" s="15">
@@ -11086,10 +8598,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C412" s="41">
+      <c r="C412" s="35">
         <v>11</v>
       </c>
-      <c r="D412" s="33">
+      <c r="D412">
         <v>8</v>
       </c>
       <c r="E412" s="15">
@@ -11111,10 +8623,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C413" s="41">
+      <c r="C413" s="35">
         <v>11</v>
       </c>
-      <c r="D413" s="33">
+      <c r="D413">
         <v>7</v>
       </c>
       <c r="E413" s="15">
@@ -11136,10 +8648,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C414" s="41">
+      <c r="C414" s="35">
         <v>11</v>
       </c>
-      <c r="D414" s="33">
+      <c r="D414">
         <v>9</v>
       </c>
       <c r="E414" s="15">
@@ -11161,10 +8673,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C415" s="41">
+      <c r="C415" s="35">
         <v>11</v>
       </c>
-      <c r="D415" s="33">
+      <c r="D415">
         <v>9</v>
       </c>
       <c r="E415" s="15">
@@ -11186,10 +8698,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C416" s="41">
+      <c r="C416" s="35">
         <v>11</v>
       </c>
-      <c r="D416" s="33">
+      <c r="D416">
         <v>8</v>
       </c>
       <c r="E416" s="15">
@@ -11211,10 +8723,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C417" s="41">
+      <c r="C417" s="35">
         <v>11</v>
       </c>
-      <c r="D417" s="33">
+      <c r="D417">
         <v>6</v>
       </c>
       <c r="E417" s="15">
@@ -11236,10 +8748,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C418" s="41">
+      <c r="C418" s="35">
         <v>11</v>
       </c>
-      <c r="D418" s="33">
+      <c r="D418">
         <v>3</v>
       </c>
       <c r="E418" s="15">
@@ -11261,10 +8773,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C419" s="41">
+      <c r="C419" s="35">
         <v>11</v>
       </c>
-      <c r="D419" s="33">
+      <c r="D419">
         <v>0</v>
       </c>
       <c r="E419" s="15">
@@ -11286,10 +8798,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C420" s="41">
+      <c r="C420" s="35">
         <v>11</v>
       </c>
-      <c r="D420" s="33">
+      <c r="D420">
         <v>2</v>
       </c>
       <c r="E420" s="15">
@@ -11311,10 +8823,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C421" s="41">
+      <c r="C421" s="35">
         <v>11</v>
       </c>
-      <c r="D421" s="33">
+      <c r="D421">
         <v>3</v>
       </c>
       <c r="E421" s="15">
@@ -11336,10 +8848,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C422" s="41">
+      <c r="C422" s="35">
         <v>11</v>
       </c>
-      <c r="D422" s="33">
+      <c r="D422">
         <v>3</v>
       </c>
       <c r="E422" s="15">
@@ -11361,10 +8873,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C423" s="41">
+      <c r="C423" s="35">
         <v>11</v>
       </c>
-      <c r="D423" s="33">
+      <c r="D423">
         <v>4</v>
       </c>
       <c r="E423" s="15">
@@ -11386,10 +8898,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C424" s="41">
+      <c r="C424" s="35">
         <v>11</v>
       </c>
-      <c r="D424" s="33">
+      <c r="D424">
         <v>7</v>
       </c>
       <c r="E424" s="15">
@@ -11411,10 +8923,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C425" s="41">
+      <c r="C425" s="35">
         <v>11</v>
       </c>
-      <c r="D425" s="33">
+      <c r="D425">
         <v>4</v>
       </c>
       <c r="E425" s="15">
@@ -11436,10 +8948,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C426" s="41">
+      <c r="C426" s="35">
         <v>11</v>
       </c>
-      <c r="D426" s="33">
+      <c r="D426">
         <v>3</v>
       </c>
       <c r="E426" s="15">
@@ -11461,10 +8973,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C427" s="41">
+      <c r="C427" s="35">
         <v>11</v>
       </c>
-      <c r="D427" s="33">
+      <c r="D427">
         <v>2</v>
       </c>
       <c r="E427" s="15">
@@ -11486,10 +8998,10 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C428" s="41">
+      <c r="C428" s="35">
         <v>11</v>
       </c>
-      <c r="D428" s="33">
+      <c r="D428">
         <v>4</v>
       </c>
       <c r="E428" s="15">
@@ -11511,7 +9023,7 @@
         <f t="shared" si="18"/>
         <v>Hotel Campestre Alto lindo en Guatapé</v>
       </c>
-      <c r="C429" s="41">
+      <c r="C429" s="35">
         <v>11</v>
       </c>
       <c r="G429" s="14"/>
@@ -11642,7 +9154,7 @@
         <v>8</v>
       </c>
       <c r="B441" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G441" s="14">
         <v>46011</v>
@@ -12186,7 +9698,7 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G483" s="14">
         <v>46053</v>
@@ -12730,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="B525" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G525" s="14">
         <v>46095</v>
@@ -13274,7 +10786,7 @@
         <v>8</v>
       </c>
       <c r="B567" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G567" s="14">
         <v>46137</v>
@@ -14361,10 +11873,10 @@
     </row>
     <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B651" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="G651" s="14">
         <v>46221</v>
@@ -14905,28 +12417,28 @@
     </row>
     <row r="693" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B693" t="s">
-        <v>117</v>
-      </c>
-      <c r="C693" s="43">
+        <v>29</v>
+      </c>
+      <c r="C693" s="37">
         <v>32</v>
       </c>
       <c r="D693" s="17">
         <v>19</v>
       </c>
-      <c r="E693" s="37">
+      <c r="E693" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>147437.26315789475</v>
       </c>
-      <c r="F693" s="40">
+      <c r="F693" s="34">
         <v>2801308</v>
       </c>
-      <c r="G693" s="25">
+      <c r="G693" s="23">
         <v>45748</v>
       </c>
-      <c r="J693" s="44"/>
+      <c r="J693" s="38"/>
     </row>
     <row r="694" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A694" t="str">
@@ -14937,23 +12449,23 @@
         <f t="shared" ref="B694:B734" si="35">+B693</f>
         <v>Hotel Z3</v>
       </c>
-      <c r="C694" s="43">
+      <c r="C694" s="37">
         <v>32</v>
       </c>
       <c r="D694" s="17">
         <v>21</v>
       </c>
-      <c r="E694" s="37">
+      <c r="E694" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>154392.19047619047</v>
       </c>
-      <c r="F694" s="40">
+      <c r="F694" s="34">
         <v>3242236</v>
       </c>
-      <c r="G694" s="26">
+      <c r="G694" s="24">
         <v>45749</v>
       </c>
-      <c r="J694" s="45"/>
+      <c r="J694" s="39"/>
     </row>
     <row r="695" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A695" t="str">
@@ -14964,23 +12476,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C695" s="43">
+      <c r="C695" s="37">
         <v>32</v>
       </c>
       <c r="D695" s="17">
         <v>18</v>
       </c>
-      <c r="E695" s="37">
+      <c r="E695" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>151417.33333333334</v>
       </c>
-      <c r="F695" s="40">
+      <c r="F695" s="34">
         <v>2725512</v>
       </c>
-      <c r="G695" s="25">
+      <c r="G695" s="23">
         <v>45750</v>
       </c>
-      <c r="J695" s="44"/>
+      <c r="J695" s="38"/>
     </row>
     <row r="696" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A696" t="str">
@@ -14991,23 +12503,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C696" s="43">
+      <c r="C696" s="37">
         <v>32</v>
       </c>
       <c r="D696" s="17">
         <v>8</v>
       </c>
-      <c r="E696" s="37">
+      <c r="E696" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>145603.875</v>
       </c>
-      <c r="F696" s="40">
+      <c r="F696" s="34">
         <v>1164831</v>
       </c>
-      <c r="G696" s="26">
+      <c r="G696" s="24">
         <v>45751</v>
       </c>
-      <c r="J696" s="45"/>
+      <c r="J696" s="39"/>
     </row>
     <row r="697" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A697" t="str">
@@ -15018,23 +12530,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C697" s="43">
+      <c r="C697" s="37">
         <v>32</v>
       </c>
       <c r="D697" s="17">
         <v>18</v>
       </c>
-      <c r="E697" s="37">
+      <c r="E697" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>147148.44444444444</v>
       </c>
-      <c r="F697" s="40">
+      <c r="F697" s="34">
         <v>2648672</v>
       </c>
-      <c r="G697" s="25">
+      <c r="G697" s="23">
         <v>45752</v>
       </c>
-      <c r="J697" s="44"/>
+      <c r="J697" s="38"/>
     </row>
     <row r="698" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A698" t="str">
@@ -15045,23 +12557,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C698" s="43">
+      <c r="C698" s="37">
         <v>32</v>
       </c>
       <c r="D698" s="17">
         <v>11</v>
       </c>
-      <c r="E698" s="37">
+      <c r="E698" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>153228.18181818182</v>
       </c>
-      <c r="F698" s="40">
+      <c r="F698" s="34">
         <v>1685510</v>
       </c>
-      <c r="G698" s="26">
+      <c r="G698" s="24">
         <v>45753</v>
       </c>
-      <c r="J698" s="45"/>
+      <c r="J698" s="39"/>
     </row>
     <row r="699" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A699" t="str">
@@ -15072,23 +12584,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C699" s="43">
+      <c r="C699" s="37">
         <v>32</v>
       </c>
       <c r="D699" s="17">
         <v>18</v>
       </c>
-      <c r="E699" s="37">
+      <c r="E699" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>153289.33333333334</v>
       </c>
-      <c r="F699" s="40">
+      <c r="F699" s="34">
         <v>2759208</v>
       </c>
-      <c r="G699" s="25">
+      <c r="G699" s="23">
         <v>45754</v>
       </c>
-      <c r="J699" s="44"/>
+      <c r="J699" s="38"/>
     </row>
     <row r="700" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A700" t="str">
@@ -15099,23 +12611,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C700" s="43">
+      <c r="C700" s="37">
         <v>32</v>
       </c>
       <c r="D700" s="17">
         <v>23</v>
       </c>
-      <c r="E700" s="37">
+      <c r="E700" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>152808.91304347827</v>
       </c>
-      <c r="F700" s="40">
+      <c r="F700" s="34">
         <v>3514605</v>
       </c>
-      <c r="G700" s="26">
+      <c r="G700" s="24">
         <v>45755</v>
       </c>
-      <c r="J700" s="45"/>
+      <c r="J700" s="39"/>
     </row>
     <row r="701" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A701" t="str">
@@ -15126,23 +12638,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C701" s="43">
+      <c r="C701" s="37">
         <v>32</v>
       </c>
       <c r="D701" s="17">
         <v>25</v>
       </c>
-      <c r="E701" s="37">
+      <c r="E701" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>150448.35999999999</v>
       </c>
-      <c r="F701" s="40">
+      <c r="F701" s="34">
         <v>3761209</v>
       </c>
-      <c r="G701" s="25">
+      <c r="G701" s="23">
         <v>45756</v>
       </c>
-      <c r="J701" s="44"/>
+      <c r="J701" s="38"/>
     </row>
     <row r="702" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A702" t="str">
@@ -15153,23 +12665,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C702" s="43">
+      <c r="C702" s="37">
         <v>32</v>
       </c>
       <c r="D702" s="17">
         <v>31</v>
       </c>
-      <c r="E702" s="37">
+      <c r="E702" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>159455.87096774194</v>
       </c>
-      <c r="F702" s="40">
+      <c r="F702" s="34">
         <v>4943132</v>
       </c>
-      <c r="G702" s="26">
+      <c r="G702" s="24">
         <v>45757</v>
       </c>
-      <c r="J702" s="45"/>
+      <c r="J702" s="39"/>
     </row>
     <row r="703" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A703" t="str">
@@ -15180,23 +12692,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C703" s="43">
+      <c r="C703" s="37">
         <v>32</v>
       </c>
       <c r="D703" s="17">
         <v>19</v>
       </c>
-      <c r="E703" s="37">
+      <c r="E703" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>149525.57894736843</v>
       </c>
-      <c r="F703" s="40">
+      <c r="F703" s="34">
         <v>2840986</v>
       </c>
-      <c r="G703" s="25">
+      <c r="G703" s="23">
         <v>45758</v>
       </c>
-      <c r="J703" s="44"/>
+      <c r="J703" s="38"/>
     </row>
     <row r="704" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A704" t="str">
@@ -15207,23 +12719,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C704" s="43">
+      <c r="C704" s="37">
         <v>32</v>
       </c>
       <c r="D704" s="17">
         <v>26</v>
       </c>
-      <c r="E704" s="37">
+      <c r="E704" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>167052</v>
       </c>
-      <c r="F704" s="40">
+      <c r="F704" s="34">
         <v>4343352</v>
       </c>
-      <c r="G704" s="26">
+      <c r="G704" s="24">
         <v>45759</v>
       </c>
-      <c r="J704" s="45"/>
+      <c r="J704" s="39"/>
     </row>
     <row r="705" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A705" t="str">
@@ -15234,23 +12746,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C705" s="43">
+      <c r="C705" s="37">
         <v>32</v>
       </c>
       <c r="D705" s="17">
         <v>17</v>
       </c>
-      <c r="E705" s="37">
+      <c r="E705" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>166207.23529411765</v>
       </c>
-      <c r="F705" s="40">
+      <c r="F705" s="34">
         <v>2825523</v>
       </c>
-      <c r="G705" s="25">
+      <c r="G705" s="23">
         <v>45760</v>
       </c>
-      <c r="J705" s="44"/>
+      <c r="J705" s="38"/>
     </row>
     <row r="706" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A706" t="str">
@@ -15261,23 +12773,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C706" s="43">
+      <c r="C706" s="37">
         <v>32</v>
       </c>
       <c r="D706" s="17">
         <v>15</v>
       </c>
-      <c r="E706" s="37">
+      <c r="E706" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>160103.73333333334</v>
       </c>
-      <c r="F706" s="40">
+      <c r="F706" s="34">
         <v>2401556</v>
       </c>
-      <c r="G706" s="26">
+      <c r="G706" s="24">
         <v>45761</v>
       </c>
-      <c r="J706" s="45"/>
+      <c r="J706" s="39"/>
     </row>
     <row r="707" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A707" t="str">
@@ -15288,23 +12800,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C707" s="43">
+      <c r="C707" s="37">
         <v>32</v>
       </c>
       <c r="D707" s="17">
         <v>18</v>
       </c>
-      <c r="E707" s="37">
+      <c r="E707" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>155888.11111111112</v>
       </c>
-      <c r="F707" s="40">
+      <c r="F707" s="34">
         <v>2805986</v>
       </c>
-      <c r="G707" s="25">
+      <c r="G707" s="23">
         <v>45762</v>
       </c>
-      <c r="J707" s="44"/>
+      <c r="J707" s="38"/>
     </row>
     <row r="708" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A708" t="str">
@@ -15315,23 +12827,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C708" s="43">
+      <c r="C708" s="37">
         <v>32</v>
       </c>
       <c r="D708" s="17">
         <v>16</v>
       </c>
-      <c r="E708" s="37">
+      <c r="E708" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>177432.5625</v>
       </c>
-      <c r="F708" s="40">
+      <c r="F708" s="34">
         <v>2838921</v>
       </c>
-      <c r="G708" s="26">
+      <c r="G708" s="24">
         <v>45763</v>
       </c>
-      <c r="J708" s="45"/>
+      <c r="J708" s="39"/>
     </row>
     <row r="709" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A709" t="str">
@@ -15342,23 +12854,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C709" s="43">
+      <c r="C709" s="37">
         <v>32</v>
       </c>
       <c r="D709" s="17">
         <v>28</v>
       </c>
-      <c r="E709" s="37">
+      <c r="E709" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>173373.92857142858</v>
       </c>
-      <c r="F709" s="40">
+      <c r="F709" s="34">
         <v>4854470</v>
       </c>
-      <c r="G709" s="25">
+      <c r="G709" s="23">
         <v>45764</v>
       </c>
-      <c r="J709" s="44"/>
+      <c r="J709" s="38"/>
     </row>
     <row r="710" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A710" t="str">
@@ -15369,23 +12881,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C710" s="43">
+      <c r="C710" s="37">
         <v>32</v>
       </c>
       <c r="D710" s="17">
         <v>27</v>
       </c>
-      <c r="E710" s="37">
+      <c r="E710" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>163184.51851851851</v>
       </c>
-      <c r="F710" s="40">
+      <c r="F710" s="34">
         <v>4405982</v>
       </c>
-      <c r="G710" s="26">
+      <c r="G710" s="24">
         <v>45765</v>
       </c>
-      <c r="J710" s="45"/>
+      <c r="J710" s="39"/>
     </row>
     <row r="711" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A711" t="str">
@@ -15396,23 +12908,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C711" s="43">
+      <c r="C711" s="37">
         <v>32</v>
       </c>
       <c r="D711" s="17">
         <v>20</v>
       </c>
-      <c r="E711" s="37">
+      <c r="E711" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>160633.79999999999</v>
       </c>
-      <c r="F711" s="40">
+      <c r="F711" s="34">
         <v>3212676</v>
       </c>
-      <c r="G711" s="25">
+      <c r="G711" s="23">
         <v>45766</v>
       </c>
-      <c r="J711" s="44"/>
+      <c r="J711" s="38"/>
     </row>
     <row r="712" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A712" t="str">
@@ -15423,23 +12935,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C712" s="43">
+      <c r="C712" s="37">
         <v>32</v>
       </c>
       <c r="D712" s="17">
         <v>12</v>
       </c>
-      <c r="E712" s="37">
+      <c r="E712" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>165479.83333333334</v>
       </c>
-      <c r="F712" s="40">
+      <c r="F712" s="34">
         <v>1985758</v>
       </c>
-      <c r="G712" s="26">
+      <c r="G712" s="24">
         <v>45767</v>
       </c>
-      <c r="J712" s="45"/>
+      <c r="J712" s="39"/>
     </row>
     <row r="713" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A713" t="str">
@@ -15450,23 +12962,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C713" s="43">
+      <c r="C713" s="37">
         <v>32</v>
       </c>
       <c r="D713" s="17">
         <v>23</v>
       </c>
-      <c r="E713" s="37">
+      <c r="E713" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>158451</v>
       </c>
-      <c r="F713" s="40">
+      <c r="F713" s="34">
         <v>3644373</v>
       </c>
-      <c r="G713" s="25">
+      <c r="G713" s="23">
         <v>45768</v>
       </c>
-      <c r="J713" s="44"/>
+      <c r="J713" s="38"/>
     </row>
     <row r="714" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A714" t="str">
@@ -15477,23 +12989,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C714" s="43">
+      <c r="C714" s="37">
         <v>32</v>
       </c>
       <c r="D714" s="17">
         <v>22</v>
       </c>
-      <c r="E714" s="37">
+      <c r="E714" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>159311.59090909091</v>
       </c>
-      <c r="F714" s="40">
+      <c r="F714" s="34">
         <v>3504855</v>
       </c>
-      <c r="G714" s="26">
+      <c r="G714" s="24">
         <v>45769</v>
       </c>
-      <c r="J714" s="45"/>
+      <c r="J714" s="39"/>
     </row>
     <row r="715" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A715" t="str">
@@ -15504,23 +13016,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C715" s="43">
+      <c r="C715" s="37">
         <v>32</v>
       </c>
       <c r="D715" s="17">
         <v>27</v>
       </c>
-      <c r="E715" s="37">
+      <c r="E715" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>163780.03703703705</v>
       </c>
-      <c r="F715" s="40">
+      <c r="F715" s="34">
         <v>4422061</v>
       </c>
-      <c r="G715" s="25">
+      <c r="G715" s="23">
         <v>45770</v>
       </c>
-      <c r="J715" s="44"/>
+      <c r="J715" s="38"/>
     </row>
     <row r="716" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A716" t="str">
@@ -15531,23 +13043,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C716" s="43">
+      <c r="C716" s="37">
         <v>32</v>
       </c>
       <c r="D716" s="17">
         <v>26</v>
       </c>
-      <c r="E716" s="37">
+      <c r="E716" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>159814.69230769231</v>
       </c>
-      <c r="F716" s="40">
+      <c r="F716" s="34">
         <v>4155182</v>
       </c>
-      <c r="G716" s="26">
+      <c r="G716" s="24">
         <v>45771</v>
       </c>
-      <c r="J716" s="45"/>
+      <c r="J716" s="39"/>
     </row>
     <row r="717" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A717" t="str">
@@ -15558,23 +13070,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C717" s="43">
+      <c r="C717" s="37">
         <v>32</v>
       </c>
       <c r="D717" s="17">
         <v>18</v>
       </c>
-      <c r="E717" s="37">
+      <c r="E717" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>155710.44444444444</v>
       </c>
-      <c r="F717" s="40">
+      <c r="F717" s="34">
         <v>2802788</v>
       </c>
-      <c r="G717" s="25">
+      <c r="G717" s="23">
         <v>45772</v>
       </c>
-      <c r="J717" s="44"/>
+      <c r="J717" s="38"/>
     </row>
     <row r="718" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A718" t="str">
@@ -15585,23 +13097,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C718" s="43">
+      <c r="C718" s="37">
         <v>32</v>
       </c>
       <c r="D718" s="17">
         <v>16</v>
       </c>
-      <c r="E718" s="37">
+      <c r="E718" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>146091.6875</v>
       </c>
-      <c r="F718" s="40">
+      <c r="F718" s="34">
         <v>2337467</v>
       </c>
-      <c r="G718" s="26">
+      <c r="G718" s="24">
         <v>45773</v>
       </c>
-      <c r="J718" s="45"/>
+      <c r="J718" s="39"/>
     </row>
     <row r="719" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A719" t="str">
@@ -15612,23 +13124,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C719" s="43">
+      <c r="C719" s="37">
         <v>32</v>
       </c>
       <c r="D719" s="17">
         <v>5</v>
       </c>
-      <c r="E719" s="37">
+      <c r="E719" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>193598.8</v>
       </c>
-      <c r="F719" s="40">
+      <c r="F719" s="34">
         <v>967994</v>
       </c>
-      <c r="G719" s="25">
+      <c r="G719" s="23">
         <v>45774</v>
       </c>
-      <c r="J719" s="44"/>
+      <c r="J719" s="38"/>
     </row>
     <row r="720" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A720" t="str">
@@ -15639,23 +13151,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C720" s="43">
+      <c r="C720" s="37">
         <v>32</v>
       </c>
       <c r="D720" s="17">
         <v>16</v>
       </c>
-      <c r="E720" s="37">
+      <c r="E720" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>145859.0625</v>
       </c>
-      <c r="F720" s="40">
+      <c r="F720" s="34">
         <v>2333745</v>
       </c>
-      <c r="G720" s="26">
+      <c r="G720" s="24">
         <v>45775</v>
       </c>
-      <c r="J720" s="45"/>
+      <c r="J720" s="39"/>
     </row>
     <row r="721" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A721" t="str">
@@ -15666,23 +13178,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C721" s="43">
+      <c r="C721" s="37">
         <v>32</v>
       </c>
       <c r="D721" s="17">
         <v>15</v>
       </c>
-      <c r="E721" s="37">
+      <c r="E721" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>158247.93333333332</v>
       </c>
-      <c r="F721" s="40">
+      <c r="F721" s="34">
         <v>2373719</v>
       </c>
-      <c r="G721" s="25">
+      <c r="G721" s="23">
         <v>45776</v>
       </c>
-      <c r="J721" s="44"/>
+      <c r="J721" s="38"/>
     </row>
     <row r="722" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A722" t="str">
@@ -15693,23 +13205,23 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C722" s="43">
+      <c r="C722" s="37">
         <v>32</v>
       </c>
       <c r="D722" s="17">
         <v>21</v>
       </c>
-      <c r="E722" s="37">
+      <c r="E722" s="31">
         <f>Cliente2[[#This Row],[Total_Ingresos]]/Cliente2[[#This Row],[Ocupadas]]</f>
         <v>159290.66666666666</v>
       </c>
-      <c r="F722" s="40">
+      <c r="F722" s="34">
         <v>3345104</v>
       </c>
-      <c r="G722" s="26">
+      <c r="G722" s="24">
         <v>45777</v>
       </c>
-      <c r="J722" s="45"/>
+      <c r="J722" s="39"/>
     </row>
     <row r="723" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A723" t="str">
@@ -15720,13 +13232,13 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C723" s="43"/>
+      <c r="C723" s="37"/>
       <c r="D723" s="17"/>
-      <c r="E723" s="37"/>
-      <c r="G723" s="25">
+      <c r="E723" s="31"/>
+      <c r="G723" s="23">
         <v>45778</v>
       </c>
-      <c r="J723" s="46"/>
+      <c r="J723" s="40"/>
     </row>
     <row r="724" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.45">
       <c r="A724" t="str">
@@ -15737,9 +13249,9 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C724" s="42"/>
-      <c r="E724" s="37"/>
-      <c r="G724" s="26">
+      <c r="C724" s="36"/>
+      <c r="E724" s="31"/>
+      <c r="G724" s="24">
         <v>45779</v>
       </c>
     </row>
@@ -15752,12 +13264,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C725" s="42"/>
+      <c r="C725" s="36"/>
       <c r="F725" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G725" s="25">
+      <c r="G725" s="23">
         <v>45780</v>
       </c>
     </row>
@@ -15770,12 +13282,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C726" s="42"/>
+      <c r="C726" s="36"/>
       <c r="F726" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G726" s="26">
+      <c r="G726" s="24">
         <v>45781</v>
       </c>
     </row>
@@ -15788,12 +13300,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C727" s="42"/>
+      <c r="C727" s="36"/>
       <c r="F727" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G727" s="25">
+      <c r="G727" s="23">
         <v>45782</v>
       </c>
     </row>
@@ -15806,12 +13318,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C728" s="42"/>
+      <c r="C728" s="36"/>
       <c r="F728" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G728" s="26">
+      <c r="G728" s="24">
         <v>45783</v>
       </c>
     </row>
@@ -15824,12 +13336,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C729" s="42"/>
+      <c r="C729" s="36"/>
       <c r="F729" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G729" s="25">
+      <c r="G729" s="23">
         <v>45784</v>
       </c>
     </row>
@@ -15842,12 +13354,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C730" s="42"/>
+      <c r="C730" s="36"/>
       <c r="F730" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G730" s="26">
+      <c r="G730" s="24">
         <v>45785</v>
       </c>
     </row>
@@ -15860,12 +13372,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C731" s="42"/>
+      <c r="C731" s="36"/>
       <c r="F731" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G731" s="25">
+      <c r="G731" s="23">
         <v>45786</v>
       </c>
     </row>
@@ -15878,12 +13390,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C732" s="42"/>
+      <c r="C732" s="36"/>
       <c r="F732" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G732" s="26">
+      <c r="G732" s="24">
         <v>45787</v>
       </c>
     </row>
@@ -15896,12 +13408,12 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C733" s="42"/>
+      <c r="C733" s="36"/>
       <c r="F733" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G733" s="25">
+      <c r="G733" s="23">
         <v>45788</v>
       </c>
     </row>
@@ -15914,21 +13426,21 @@
         <f t="shared" si="35"/>
         <v>Hotel Z3</v>
       </c>
-      <c r="C734" s="42"/>
+      <c r="C734" s="36"/>
       <c r="F734" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>
         <v>0</v>
       </c>
-      <c r="G734" s="26">
+      <c r="G734" s="24">
         <v>45789</v>
       </c>
     </row>
     <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B735" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F735" s="15">
         <f>Cliente2[[#This Row],[Tarifa]]*Cliente2[[#This Row],[Ocupadas]]</f>

--- a/app/database/Parametros.xlsx
+++ b/app/database/Parametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2026\Gesglos\booking_scraper\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39684F42-15D1-4A64-AC05-679E74D060C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA4F0A-CEF1-4327-A2A0-05E52475B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="11376" xr2:uid="{9E98B23C-6360-4275-ADF1-08EC9DEFEBC7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
   <si>
     <t>Hotel</t>
   </si>
@@ -158,6 +158,12 @@
   <si>
     <t>Hotel Campestre Alto lindo en Guatapé</t>
   </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Botánica Casa Hotel Manila by HOUSY</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +392,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -471,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,11 +1012,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490BB3E7-AA76-410D-8D51-AC55157784CD}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,6 +1060,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
     </row>
@@ -1061,6 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB63C-18F2-44BE-92D8-19338A9887F9}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1591,6 +1616,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4176F2-6A77-4C34-8EDA-976C834D1280}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J776"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">

--- a/app/database/Parametros.xlsx
+++ b/app/database/Parametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2026\Gesglos\booking_scraper\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39684F42-15D1-4A64-AC05-679E74D060C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F51842-1D14-4DBD-A9E4-D852A3CDC796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="11376" xr2:uid="{9E98B23C-6360-4275-ADF1-08EC9DEFEBC7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
   <si>
     <t>Hotel</t>
   </si>
@@ -158,6 +158,12 @@
   <si>
     <t>Hotel Campestre Alto lindo en Guatapé</t>
   </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Botánica Casa Hotel Manila by HOUSY</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +392,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -471,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1001,7 +1016,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,6 +1057,14 @@
       </c>
       <c r="B2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
